--- a/RecipeListCornucopia.xlsx
+++ b/RecipeListCornucopia.xlsx
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="982">
+  <si>
+    <t>1 cup snow peas, trimmed and cut lengthwise into thin strips</t>
+  </si>
+  <si>
+    <t>2 T sliced almonds, toasted</t>
+  </si>
   <si>
     <t>2. Add all the rest of the ingredients and cook on medium/low heat for about an hour. Enjoy!</t>
   </si>
@@ -72,6 +78,28 @@
   </si>
   <si>
     <t>2. Add the diced and crushed tomatoes and the chicken broth to the pot and bring to a boil. Reduce the heat to medium low and simmer 10 minutes. Stir in the kidney beans and pasta and cook until the pasta and vegetables are tender, about 10 minutes. Season with salt. Ladle into bowls and top with the parmesan and chopped basil.</t>
+  </si>
+  <si>
+    <t>2 T seasoned rice vinegar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 T low-sodium soy sauce</t>
+  </si>
+  <si>
+    <t>1 T dark sesame oil</t>
+  </si>
+  <si>
+    <t>1 tsp bottled ground fresh ginger (such as Spice World)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 cups gourmet salad greens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups chopped cooked chicken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup matchstick-cut carrots </t>
   </si>
   <si>
     <t xml:space="preserve">2 lbs 99% fat-free ground turkey </t>
@@ -2341,19 +2369,6 @@
   </si>
   <si>
     <t>2. Add the chicken breast, V8 juice, diced tomatoes, beans (drained), corn, chili powder, cumin, and oregano. Stir to combine. Open the can of chipotle peppers and take two out. Mince them and add to the pot. Take two spoonfuls of the adobo sauce from the can and add to the pot as well. Stir it on up.</t>
-  </si>
-  <si>
-    <t>2 T seasoned rice vinegar
-1 T low-sodium soy sauce
-1 T dark sesame oil
-1 tsp bottled ground fresh ginger (such as Spice World)
-1 tsp honey
-6 cups gourmet salad greens 
-2 cups chopped cooked chicken 
-1 cup matchstick-cut carrots 
-1 cup snow peas, trimmed and cut lengthwise into thin strips
-2 T sliced almonds, toasted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1 medium yellow onion</t>
@@ -3476,11 +3491,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H590"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1206" sqref="A591:A1206"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3493,872 +3508,847 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="84">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="D2" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="E2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G2" t="s">
+        <v>787</v>
+      </c>
+      <c r="H2" t="s">
         <v>759</v>
-      </c>
-      <c r="F2" t="s">
-        <v>778</v>
-      </c>
-      <c r="G2" t="s">
-        <v>779</v>
-      </c>
-      <c r="H2" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36">
       <c r="D3" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="E3" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24">
       <c r="D4" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="E4" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48">
       <c r="D5" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="E5" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="D6" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="D7" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="D8" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="D9" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="C10" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="D10" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="E10" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="F10" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="G10" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="H10" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="D11" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="E11" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="D12" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="E12" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="D13" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="E13" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="D14" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="E14" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24">
       <c r="D15" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="E15" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="D16" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="E16" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="D17" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="E17" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="84">
       <c r="A18" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D18" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="E18" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="F18" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="G18" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="H18" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="48">
       <c r="D19" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="E19" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24">
       <c r="D20" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="E20" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36">
       <c r="D21" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="E21" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="D22" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="D23" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="D24" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="D25" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="D26" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="D27" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="D28" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="D29" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="D30" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="D31" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="36">
       <c r="A32" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="B32" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="C32" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="D32" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="E32" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="F32" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="G32" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="D33" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="E33" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="D34" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="E34" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="D35" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="E35" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="D36" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="E36" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="D37" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="D38" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="D39" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="144">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="60">
       <c r="A40" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
+        <v>804</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>808</v>
+      </c>
+      <c r="F40" t="s">
+        <v>809</v>
+      </c>
+      <c r="G40" t="s">
+        <v>810</v>
+      </c>
+      <c r="H40" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12">
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12">
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="24">
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12">
+      <c r="D44" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="12">
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="12">
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="12">
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="24">
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="12">
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12"/>
+    <row r="51" spans="1:8" ht="48">
+      <c r="A51" t="s">
+        <v>789</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>804</v>
+      </c>
+      <c r="D51" t="s">
+        <v>679</v>
+      </c>
+      <c r="E51" t="s">
+        <v>680</v>
+      </c>
+      <c r="F51" t="s">
+        <v>814</v>
+      </c>
+      <c r="G51" t="s">
+        <v>795</v>
+      </c>
+      <c r="H51" t="s">
         <v>796</v>
       </c>
-      <c r="D40" t="s">
-        <v>734</v>
-      </c>
-      <c r="E40" t="s">
-        <v>800</v>
-      </c>
-      <c r="F40" t="s">
-        <v>801</v>
-      </c>
-      <c r="G40" t="s">
-        <v>802</v>
-      </c>
-      <c r="H40" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="48">
-      <c r="A41" t="s">
-        <v>781</v>
-      </c>
-      <c r="B41">
+    </row>
+    <row r="52" spans="1:8" ht="48">
+      <c r="D52" t="s">
+        <v>709</v>
+      </c>
+      <c r="E52" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="48">
+      <c r="D53" t="s">
+        <v>710</v>
+      </c>
+      <c r="E53" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="D54" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="D55" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="D56" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="D57" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="D58" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="D59" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="D60" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="D61" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="24">
+      <c r="D62" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="D63" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="D64" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="D65" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="D66" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="D67" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="D68" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="24">
+      <c r="D69" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="48">
+      <c r="A70" t="s">
+        <v>797</v>
+      </c>
+      <c r="B70">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
-        <v>796</v>
-      </c>
-      <c r="D41" t="s">
-        <v>670</v>
-      </c>
-      <c r="E41" t="s">
-        <v>671</v>
-      </c>
-      <c r="F41" t="s">
-        <v>806</v>
-      </c>
-      <c r="G41" t="s">
-        <v>787</v>
-      </c>
-      <c r="H41" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="48">
-      <c r="D42" t="s">
-        <v>700</v>
-      </c>
-      <c r="E42" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="48">
-      <c r="D43" t="s">
-        <v>701</v>
-      </c>
-      <c r="E43" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="D44" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="D45" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="D46" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="D47" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="D48" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="D49" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="D50" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="D51" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="24">
-      <c r="D52" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="D53" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="D54" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="D55" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="D56" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="D57" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="D58" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="24">
-      <c r="D59" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="48">
-      <c r="A60" t="s">
-        <v>789</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>790</v>
-      </c>
-      <c r="D60" t="s">
-        <v>672</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="C70" t="s">
+        <v>798</v>
+      </c>
+      <c r="D70" t="s">
         <v>681</v>
       </c>
-      <c r="F60" t="s">
-        <v>810</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="E70" t="s">
+        <v>690</v>
+      </c>
+      <c r="F70" t="s">
+        <v>818</v>
+      </c>
+      <c r="G70" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D71" t="s">
+        <v>682</v>
+      </c>
+      <c r="E71" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D72" t="s">
+        <v>683</v>
+      </c>
+      <c r="E72" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D73" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D74" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D75" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D76" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D77" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D78" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="60">
+      <c r="A79" t="s">
+        <v>820</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>804</v>
+      </c>
+      <c r="D79" t="s">
+        <v>693</v>
+      </c>
+      <c r="E79" t="s">
+        <v>661</v>
+      </c>
+      <c r="F79" t="s">
+        <v>818</v>
+      </c>
+      <c r="G79" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="12.75" customHeight="1">
-      <c r="D61" t="s">
-        <v>673</v>
-      </c>
-      <c r="E61" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="12.75" customHeight="1">
-      <c r="D62" t="s">
-        <v>674</v>
-      </c>
-      <c r="E62" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="12.75" customHeight="1">
-      <c r="D63" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="12.75" customHeight="1">
-      <c r="D64" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D65" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D66" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D67" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D68" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="60">
-      <c r="A69" t="s">
+      <c r="H79" t="s">
         <v>812</v>
       </c>
-      <c r="B69">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>796</v>
-      </c>
-      <c r="D69" t="s">
-        <v>684</v>
-      </c>
-      <c r="E69" t="s">
+    </row>
+    <row r="80" spans="1:8" ht="36">
+      <c r="D80" t="s">
         <v>652</v>
       </c>
-      <c r="F69" t="s">
-        <v>810</v>
-      </c>
-      <c r="G69" t="s">
-        <v>803</v>
-      </c>
-      <c r="H69" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="36">
-      <c r="D70" t="s">
-        <v>643</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="E80" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="24">
+      <c r="D81" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="24">
-      <c r="D71" t="s">
-        <v>644</v>
-      </c>
-      <c r="E71" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="D72" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="D73" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="D74" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="D75" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="24">
-      <c r="D76" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="D77" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="D78" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="D79" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="60">
-      <c r="A80" t="s">
-        <v>805</v>
-      </c>
-      <c r="B80">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>796</v>
-      </c>
-      <c r="D80" t="s">
-        <v>655</v>
-      </c>
-      <c r="E80" t="s">
-        <v>660</v>
-      </c>
-      <c r="F80" t="s">
-        <v>810</v>
-      </c>
-      <c r="G80" t="s">
-        <v>818</v>
-      </c>
-      <c r="H80" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="72">
-      <c r="D81" t="s">
-        <v>656</v>
-      </c>
       <c r="E81" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="D82" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="D83" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="D84" t="s">
-        <v>659</v>
+        <v>711</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="D85" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="72">
-      <c r="A86" t="s">
-        <v>820</v>
-      </c>
-      <c r="B86">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>796</v>
-      </c>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="24">
       <c r="D86" t="s">
-        <v>662</v>
-      </c>
-      <c r="E86" t="s">
-        <v>628</v>
-      </c>
-      <c r="F86" t="s">
-        <v>810</v>
-      </c>
-      <c r="G86" t="s">
-        <v>807</v>
-      </c>
-      <c r="H86" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="24">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="D87" t="s">
-        <v>663</v>
-      </c>
-      <c r="E87" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="24">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="D88" t="s">
-        <v>664</v>
-      </c>
-      <c r="E88" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="D89" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="60">
+      <c r="A90" t="s">
+        <v>813</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>804</v>
+      </c>
+      <c r="D90" t="s">
+        <v>664</v>
+      </c>
+      <c r="E90" t="s">
+        <v>669</v>
+      </c>
+      <c r="F90" t="s">
+        <v>818</v>
+      </c>
+      <c r="G90" t="s">
+        <v>826</v>
+      </c>
+      <c r="H90" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="72">
+      <c r="D91" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="D90" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="D91" t="s">
-        <v>667</v>
+      <c r="E91" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="D92" t="s">
-        <v>731</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="D93" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="60">
-      <c r="A94" t="s">
-        <v>809</v>
-      </c>
-      <c r="B94">
-        <v>12</v>
-      </c>
-      <c r="C94" t="s">
-        <v>796</v>
-      </c>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="D94" t="s">
-        <v>631</v>
-      </c>
-      <c r="E94" t="s">
-        <v>826</v>
-      </c>
-      <c r="F94" t="s">
-        <v>810</v>
-      </c>
-      <c r="G94" t="s">
-        <v>827</v>
-      </c>
-      <c r="H94" t="s">
-        <v>828</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="D95" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="72">
+      <c r="A96" t="s">
+        <v>828</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>804</v>
+      </c>
       <c r="D96" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>671</v>
+      </c>
+      <c r="E96" t="s">
+        <v>637</v>
+      </c>
+      <c r="F96" t="s">
+        <v>818</v>
+      </c>
+      <c r="G96" t="s">
+        <v>815</v>
+      </c>
+      <c r="H96" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="24">
       <c r="D97" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>672</v>
+      </c>
+      <c r="E97" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="24">
       <c r="D98" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="60">
-      <c r="A99" t="s">
-        <v>829</v>
-      </c>
-      <c r="B99">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
-        <v>796</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="E98" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="D99" t="s">
-        <v>636</v>
-      </c>
-      <c r="E99" t="s">
-        <v>813</v>
-      </c>
-      <c r="F99" t="s">
-        <v>810</v>
-      </c>
-      <c r="G99" t="s">
-        <v>814</v>
-      </c>
-      <c r="H99" t="s">
-        <v>815</v>
+        <v>674</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="D100" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="24">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="D101" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="24">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="D102" t="s">
-        <v>639</v>
+        <v>740</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="D103" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="60">
+      <c r="A104" t="s">
+        <v>817</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>804</v>
+      </c>
+      <c r="D104" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="D104" t="s">
-        <v>641</v>
+      <c r="E104" t="s">
+        <v>834</v>
+      </c>
+      <c r="F104" t="s">
+        <v>818</v>
+      </c>
+      <c r="G104" t="s">
+        <v>835</v>
+      </c>
+      <c r="H104" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="D105" t="s">
-        <v>731</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4366,1155 +4356,1176 @@
         <v>642</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="48">
-      <c r="A107" t="s">
-        <v>816</v>
-      </c>
-      <c r="B107">
-        <v>12</v>
-      </c>
-      <c r="C107" t="s">
-        <v>817</v>
-      </c>
+    <row r="107" spans="1:8">
       <c r="D107" t="s">
-        <v>614</v>
-      </c>
-      <c r="E107" t="s">
-        <v>627</v>
-      </c>
-      <c r="F107" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="D108" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="60">
+      <c r="A109" t="s">
+        <v>837</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>804</v>
+      </c>
+      <c r="D109" t="s">
+        <v>645</v>
+      </c>
+      <c r="E109" t="s">
         <v>821</v>
       </c>
-      <c r="G107" t="s">
+      <c r="F109" t="s">
+        <v>818</v>
+      </c>
+      <c r="G109" t="s">
         <v>822</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H109" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="72">
-      <c r="D108" t="s">
-        <v>615</v>
-      </c>
-      <c r="E108" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="36">
-      <c r="D109" t="s">
-        <v>616</v>
-      </c>
-      <c r="E109" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="24">
+    <row r="110" spans="1:8">
       <c r="D110" t="s">
-        <v>617</v>
-      </c>
-      <c r="E110" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="24">
       <c r="D111" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="24">
       <c r="D112" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="D113" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="D114" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="D115" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="24">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="D116" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="48">
+      <c r="A117" t="s">
+        <v>824</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>825</v>
+      </c>
+      <c r="D117" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="24">
-      <c r="D117" t="s">
+      <c r="E117" t="s">
+        <v>636</v>
+      </c>
+      <c r="F117" t="s">
+        <v>829</v>
+      </c>
+      <c r="G117" t="s">
+        <v>830</v>
+      </c>
+      <c r="H117" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="72">
+      <c r="D118" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="24">
-      <c r="D118" t="s">
+      <c r="E118" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="36">
+      <c r="D119" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="D119" t="s">
+      <c r="E119" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="24">
+      <c r="D120" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="84">
-      <c r="A120" t="s">
-        <v>824</v>
-      </c>
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="C120" t="s">
-        <v>825</v>
-      </c>
-      <c r="D120" t="s">
-        <v>603</v>
-      </c>
       <c r="E120" t="s">
-        <v>612</v>
-      </c>
-      <c r="F120" t="s">
-        <v>821</v>
-      </c>
-      <c r="G120" t="s">
-        <v>830</v>
-      </c>
-      <c r="H120" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="36">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="D121" t="s">
-        <v>604</v>
-      </c>
-      <c r="E121" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="60">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="D122" t="s">
-        <v>605</v>
-      </c>
-      <c r="E122" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="36">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="D123" t="s">
-        <v>606</v>
-      </c>
-      <c r="E123" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="D124" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="D125" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="24">
       <c r="D126" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="24">
       <c r="D127" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="24">
       <c r="D128" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="84">
-      <c r="A129" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="D129" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="84">
+      <c r="A130" t="s">
         <v>832</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>4</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>833</v>
       </c>
-      <c r="D129" t="s">
-        <v>587</v>
-      </c>
-      <c r="E129" t="s">
-        <v>580</v>
-      </c>
-      <c r="F129" t="s">
-        <v>806</v>
-      </c>
-      <c r="G129" t="s">
-        <v>834</v>
-      </c>
-      <c r="H129" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="48">
       <c r="D130" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="E130" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="24">
+        <v>621</v>
+      </c>
+      <c r="F130" t="s">
+        <v>829</v>
+      </c>
+      <c r="G130" t="s">
+        <v>838</v>
+      </c>
+      <c r="H130" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="36">
       <c r="D131" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="E131" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="24">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="60">
       <c r="D132" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="E132" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="36">
       <c r="D133" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="E133" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="D134" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="D135" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="D136" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="D137" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="D138" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="84">
+      <c r="A139" t="s">
+        <v>840</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>841</v>
+      </c>
+      <c r="D139" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="D139" t="s">
+      <c r="E139" t="s">
+        <v>589</v>
+      </c>
+      <c r="F139" t="s">
+        <v>814</v>
+      </c>
+      <c r="G139" t="s">
+        <v>842</v>
+      </c>
+      <c r="H139" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="48">
+      <c r="D140" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="D140" t="s">
+      <c r="E140" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="24">
+      <c r="D141" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="D141" t="s">
+      <c r="E141" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="24">
+      <c r="D142" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="D142" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="E142" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="36">
       <c r="D143" t="s">
-        <v>578</v>
+        <v>600</v>
+      </c>
+      <c r="E143" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="D144" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="84">
-      <c r="A145" t="s">
-        <v>836</v>
-      </c>
-      <c r="B145">
-        <v>6</v>
-      </c>
-      <c r="C145" t="s">
-        <v>837</v>
-      </c>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="D145" t="s">
-        <v>563</v>
-      </c>
-      <c r="E145" t="s">
-        <v>574</v>
-      </c>
-      <c r="F145" t="s">
-        <v>838</v>
-      </c>
-      <c r="G145" t="s">
-        <v>839</v>
-      </c>
-      <c r="H145" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="24">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="D146" t="s">
-        <v>564</v>
-      </c>
-      <c r="E146" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="60">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="D147" t="s">
-        <v>565</v>
-      </c>
-      <c r="E147" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="D148" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="D149" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="24">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="D150" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="D151" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="D152" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="D153" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="D154" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="84">
+      <c r="A155" t="s">
+        <v>844</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>845</v>
+      </c>
+      <c r="D155" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="D155" t="s">
+      <c r="E155" t="s">
+        <v>583</v>
+      </c>
+      <c r="F155" t="s">
+        <v>846</v>
+      </c>
+      <c r="G155" t="s">
+        <v>847</v>
+      </c>
+      <c r="H155" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="24">
+      <c r="D156" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="60">
-      <c r="A156" t="s">
-        <v>841</v>
-      </c>
-      <c r="B156">
-        <v>8</v>
-      </c>
-      <c r="C156" t="s">
-        <v>842</v>
-      </c>
-      <c r="D156" t="s">
-        <v>542</v>
-      </c>
       <c r="E156" t="s">
-        <v>561</v>
-      </c>
-      <c r="F156" t="s">
-        <v>778</v>
-      </c>
-      <c r="G156" t="s">
-        <v>843</v>
-      </c>
-      <c r="H156" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="24">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="60">
       <c r="D157" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="E157" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="36">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="D158" t="s">
-        <v>544</v>
-      </c>
-      <c r="E158" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="24">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="D159" t="s">
-        <v>545</v>
-      </c>
-      <c r="E159" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="36">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="24">
       <c r="D160" t="s">
-        <v>546</v>
-      </c>
-      <c r="E160" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="24">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="D161" t="s">
-        <v>547</v>
-      </c>
-      <c r="E161" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="D162" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="D163" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="D164" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="D165" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="60">
+      <c r="A166" t="s">
+        <v>849</v>
+      </c>
+      <c r="B166">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>850</v>
+      </c>
+      <c r="D166" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="D166" t="s">
+      <c r="E166" t="s">
+        <v>570</v>
+      </c>
+      <c r="F166" t="s">
+        <v>786</v>
+      </c>
+      <c r="G166" t="s">
+        <v>851</v>
+      </c>
+      <c r="H166" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="24">
+      <c r="D167" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="D167" t="s">
+      <c r="E167" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="36">
+      <c r="D168" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="D168" t="s">
+      <c r="E168" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="24">
+      <c r="D169" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="D169" t="s">
+      <c r="E169" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="36">
+      <c r="D170" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="D170" t="s">
+      <c r="E170" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="24">
+      <c r="D171" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="D171" t="s">
-        <v>557</v>
+      <c r="E171" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="D172" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="D173" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="D174" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="D175" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="48">
-      <c r="A175" t="s">
-        <v>845</v>
-      </c>
-      <c r="B175">
+    <row r="176" spans="1:8">
+      <c r="D176" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="D177" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="D178" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="D179" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="D180" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="D181" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="D182" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="D183" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="D184" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="48">
+      <c r="A185" t="s">
+        <v>853</v>
+      </c>
+      <c r="B185">
         <v>8</v>
       </c>
-      <c r="C175" t="s">
-        <v>833</v>
-      </c>
-      <c r="D175" t="s">
-        <v>536</v>
-      </c>
-      <c r="E175" t="s">
-        <v>537</v>
-      </c>
-      <c r="F175" t="s">
-        <v>778</v>
-      </c>
-      <c r="G175" t="s">
-        <v>858</v>
-      </c>
-      <c r="H175" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="24">
-      <c r="D176" t="s">
-        <v>515</v>
-      </c>
-      <c r="E176" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" ht="60">
-      <c r="D177" t="s">
-        <v>516</v>
-      </c>
-      <c r="E177" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="178" spans="4:5" ht="36">
-      <c r="D178" t="s">
-        <v>736</v>
-      </c>
-      <c r="E178" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5" ht="36">
-      <c r="D179" t="s">
-        <v>517</v>
-      </c>
-      <c r="E179" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="180" spans="4:5" ht="36">
-      <c r="D180" t="s">
-        <v>518</v>
-      </c>
-      <c r="E180" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="181" spans="4:5" ht="36">
-      <c r="D181" t="s">
-        <v>519</v>
-      </c>
-      <c r="E181" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="182" spans="4:5" ht="24">
-      <c r="D182" t="s">
-        <v>520</v>
-      </c>
-      <c r="E182" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="183" spans="4:5" ht="36">
-      <c r="D183" t="s">
-        <v>521</v>
-      </c>
-      <c r="E183" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="184" spans="4:5" ht="36">
-      <c r="D184" t="s">
-        <v>522</v>
-      </c>
-      <c r="E184" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="185" spans="4:5">
+      <c r="C185" t="s">
+        <v>841</v>
+      </c>
       <c r="D185" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="186" spans="4:5" ht="24">
+        <v>545</v>
+      </c>
+      <c r="E185" t="s">
+        <v>546</v>
+      </c>
+      <c r="F185" t="s">
+        <v>786</v>
+      </c>
+      <c r="G185" t="s">
+        <v>866</v>
+      </c>
+      <c r="H185" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="24">
       <c r="D186" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="187" spans="4:5">
+      <c r="E186" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="60">
       <c r="D187" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="188" spans="4:5">
+      <c r="E187" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="36">
       <c r="D188" t="s">
+        <v>744</v>
+      </c>
+      <c r="E188" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="36">
+      <c r="D189" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="189" spans="4:5">
-      <c r="D189" t="s">
+      <c r="E189" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="36">
+      <c r="D190" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="190" spans="4:5">
-      <c r="D190" t="s">
+      <c r="E190" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="36">
+      <c r="D191" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="191" spans="4:5">
-      <c r="D191" t="s">
+      <c r="E191" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="24">
+      <c r="D192" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="192" spans="4:5">
-      <c r="D192" t="s">
+      <c r="E192" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="36">
+      <c r="D193" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="D193" t="s">
+      <c r="E193" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="36">
+      <c r="D194" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" ht="24">
-      <c r="D194" t="s">
-        <v>532</v>
+      <c r="E194" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="D195" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="24">
       <c r="D196" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="D197" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="24">
-      <c r="D197" t="s">
+    <row r="198" spans="1:8">
+      <c r="D198" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="60">
-      <c r="A198" t="s">
-        <v>860</v>
-      </c>
-      <c r="B198">
-        <v>8</v>
-      </c>
-      <c r="C198" t="s">
-        <v>842</v>
-      </c>
-      <c r="D198" t="s">
-        <v>491</v>
-      </c>
-      <c r="E198" t="s">
-        <v>476</v>
-      </c>
-      <c r="F198" t="s">
-        <v>778</v>
-      </c>
-      <c r="G198" t="s">
-        <v>846</v>
-      </c>
-      <c r="H198" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="48">
+    <row r="199" spans="1:8">
       <c r="D199" t="s">
-        <v>492</v>
-      </c>
-      <c r="E199" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="36">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="D200" t="s">
-        <v>493</v>
-      </c>
-      <c r="E200" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="24">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="D201" t="s">
-        <v>494</v>
-      </c>
-      <c r="E201" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="D202" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="D203" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="24">
       <c r="D204" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="D205" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="24">
       <c r="D206" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="24">
       <c r="D207" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="60">
+      <c r="A208" t="s">
+        <v>868</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>850</v>
+      </c>
+      <c r="D208" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="D208" t="s">
+      <c r="E208" t="s">
+        <v>485</v>
+      </c>
+      <c r="F208" t="s">
+        <v>786</v>
+      </c>
+      <c r="G208" t="s">
+        <v>854</v>
+      </c>
+      <c r="H208" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" ht="48">
+      <c r="D209" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="D209" t="s">
+      <c r="E209" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" ht="36">
+      <c r="D210" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="D210" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="E210" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5" ht="24">
       <c r="D211" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="E211" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5">
       <c r="D212" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="4:5">
       <c r="D213" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="4:5">
       <c r="D214" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="4:5">
       <c r="D215" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5">
       <c r="D216" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5">
       <c r="D217" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="218" spans="4:5">
       <c r="D218" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="219" spans="4:5">
       <c r="D219" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="220" spans="4:5">
       <c r="D220" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" t="s">
-        <v>848</v>
-      </c>
-      <c r="B221" t="s">
-        <v>849</v>
-      </c>
-      <c r="C221" t="s">
-        <v>850</v>
-      </c>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="221" spans="4:5">
       <c r="D221" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="222" spans="4:5">
+      <c r="D222" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="223" spans="4:5">
+      <c r="D223" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="224" spans="4:5">
+      <c r="D224" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="D225" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="D226" t="s">
         <v>480</v>
-      </c>
-      <c r="E221" t="s">
-        <v>865</v>
-      </c>
-      <c r="F221" t="s">
-        <v>866</v>
-      </c>
-      <c r="G221" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="24">
-      <c r="D222" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="24">
-      <c r="D223" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="60">
-      <c r="A224" t="s">
-        <v>868</v>
-      </c>
-      <c r="B224">
-        <v>12</v>
-      </c>
-      <c r="C224" t="s">
-        <v>850</v>
-      </c>
-      <c r="D224" t="s">
-        <v>483</v>
-      </c>
-      <c r="E224" t="s">
-        <v>452</v>
-      </c>
-      <c r="F224" t="s">
-        <v>866</v>
-      </c>
-      <c r="G224" t="s">
-        <v>851</v>
-      </c>
-      <c r="H224" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="24">
-      <c r="D225" t="s">
-        <v>484</v>
-      </c>
-      <c r="E225" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="24">
-      <c r="D226" t="s">
-        <v>485</v>
-      </c>
-      <c r="E226" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="D227" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="D228" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="24">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="D229" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="24">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="D230" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>856</v>
+      </c>
+      <c r="B231" t="s">
+        <v>857</v>
+      </c>
+      <c r="C231" t="s">
+        <v>858</v>
+      </c>
+      <c r="D231" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" ht="60">
-      <c r="A231" t="s">
-        <v>853</v>
-      </c>
-      <c r="B231">
-        <v>8</v>
-      </c>
-      <c r="C231" t="s">
-        <v>854</v>
-      </c>
-      <c r="D231" t="s">
-        <v>455</v>
-      </c>
       <c r="E231" t="s">
-        <v>460</v>
+        <v>873</v>
       </c>
       <c r="F231" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="G231" t="s">
-        <v>855</v>
-      </c>
-      <c r="H231" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="24">
       <c r="D232" t="s">
-        <v>456</v>
-      </c>
-      <c r="E232" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="24">
       <c r="D233" t="s">
-        <v>457</v>
-      </c>
-      <c r="E233" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="60">
+      <c r="A234" t="s">
+        <v>876</v>
+      </c>
+      <c r="B234">
+        <v>12</v>
+      </c>
+      <c r="C234" t="s">
+        <v>858</v>
+      </c>
+      <c r="D234" t="s">
+        <v>492</v>
+      </c>
+      <c r="E234" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" ht="24">
-      <c r="D234" t="s">
-        <v>458</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
+        <v>874</v>
+      </c>
+      <c r="G234" t="s">
+        <v>859</v>
+      </c>
+      <c r="H234" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="24">
+      <c r="D235" t="s">
+        <v>493</v>
+      </c>
+      <c r="E235" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
-      <c r="D235" t="s">
-        <v>459</v>
-      </c>
-      <c r="E235" t="s">
+    <row r="236" spans="1:8" ht="24">
+      <c r="D236" t="s">
+        <v>494</v>
+      </c>
+      <c r="E236" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="60">
-      <c r="A237" t="s">
-        <v>857</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-      <c r="C237" t="s">
-        <v>850</v>
-      </c>
+    <row r="237" spans="1:8">
       <c r="D237" t="s">
-        <v>465</v>
-      </c>
-      <c r="E237" t="s">
-        <v>469</v>
-      </c>
-      <c r="F237" t="s">
-        <v>866</v>
-      </c>
-      <c r="G237" t="s">
-        <v>873</v>
-      </c>
-      <c r="H237" t="s">
-        <v>874</v>
+        <v>495</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="D238" t="s">
-        <v>466</v>
-      </c>
-      <c r="E238" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="24">
       <c r="D239" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="24">
       <c r="D240" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="60">
       <c r="A241" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="D241" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="G241" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="H241" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="24">
       <c r="D242" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="E242" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" ht="36">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="24">
       <c r="D243" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="E243" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="24">
       <c r="D244" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="E244" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="D245" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="E245" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" ht="60">
-      <c r="A246" t="s">
-        <v>863</v>
-      </c>
-      <c r="B246">
-        <v>4</v>
-      </c>
-      <c r="C246" t="s">
-        <v>864</v>
-      </c>
-      <c r="D246" t="s">
-        <v>426</v>
-      </c>
-      <c r="E246" t="s">
-        <v>439</v>
-      </c>
-      <c r="F246" t="s">
-        <v>801</v>
-      </c>
-      <c r="G246" t="s">
-        <v>877</v>
-      </c>
-      <c r="H246" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="24">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="60">
+      <c r="A247" t="s">
+        <v>865</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>858</v>
+      </c>
       <c r="D247" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="E247" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="24">
+        <v>478</v>
+      </c>
+      <c r="F247" t="s">
+        <v>874</v>
+      </c>
+      <c r="G247" t="s">
+        <v>881</v>
+      </c>
+      <c r="H247" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="D248" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="E248" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="D249" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="D250" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="60">
+      <c r="A251" t="s">
+        <v>883</v>
+      </c>
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>858</v>
+      </c>
       <c r="D251" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>451</v>
+      </c>
+      <c r="E251" t="s">
+        <v>456</v>
+      </c>
+      <c r="F251" t="s">
+        <v>874</v>
+      </c>
+      <c r="G251" t="s">
+        <v>869</v>
+      </c>
+      <c r="H251" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="24">
       <c r="D252" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>452</v>
+      </c>
+      <c r="E252" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="36">
       <c r="D253" t="s">
-        <v>432</v>
+        <v>453</v>
+      </c>
+      <c r="E253" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="24">
       <c r="D254" t="s">
-        <v>433</v>
+        <v>454</v>
+      </c>
+      <c r="E254" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="D255" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>455</v>
+      </c>
+      <c r="E255" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="60">
+      <c r="A256" t="s">
+        <v>871</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>872</v>
+      </c>
       <c r="D256" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="257" spans="1:8">
+      <c r="E256" t="s">
+        <v>448</v>
+      </c>
+      <c r="F256" t="s">
+        <v>809</v>
+      </c>
+      <c r="G256" t="s">
+        <v>885</v>
+      </c>
+      <c r="H256" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="24">
       <c r="D257" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="258" spans="1:8">
+      <c r="E257" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="24">
       <c r="D258" t="s">
         <v>437</v>
+      </c>
+      <c r="E258" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -5522,2425 +5533,2425 @@
         <v>438</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="60">
-      <c r="A260" t="s">
-        <v>879</v>
-      </c>
-      <c r="B260">
-        <v>15</v>
-      </c>
-      <c r="C260" t="s">
-        <v>864</v>
-      </c>
+    <row r="260" spans="1:8">
       <c r="D260" t="s">
-        <v>406</v>
-      </c>
-      <c r="E260" t="s">
-        <v>418</v>
-      </c>
-      <c r="F260" t="s">
-        <v>869</v>
-      </c>
-      <c r="G260" t="s">
-        <v>870</v>
-      </c>
-      <c r="H260" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="36">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="D261" t="s">
-        <v>407</v>
-      </c>
-      <c r="E261" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="36">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="D262" t="s">
-        <v>408</v>
-      </c>
-      <c r="E262" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="D263" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="24">
       <c r="D264" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="D265" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="D266" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="D267" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="D268" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="24">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="D269" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="60">
+      <c r="A270" t="s">
+        <v>887</v>
+      </c>
+      <c r="B270">
+        <v>15</v>
+      </c>
+      <c r="C270" t="s">
+        <v>872</v>
+      </c>
+      <c r="D270" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="D270" t="s">
+      <c r="E270" t="s">
+        <v>427</v>
+      </c>
+      <c r="F270" t="s">
+        <v>877</v>
+      </c>
+      <c r="G270" t="s">
+        <v>878</v>
+      </c>
+      <c r="H270" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="36">
+      <c r="D271" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="D271" t="s">
+      <c r="E271" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="36">
+      <c r="D272" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="D272" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="72">
-      <c r="A273" t="s">
-        <v>872</v>
-      </c>
-      <c r="B273" t="s">
-        <v>849</v>
-      </c>
-      <c r="C273" t="s">
-        <v>817</v>
-      </c>
+      <c r="E272" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="D273" t="s">
-        <v>421</v>
-      </c>
-      <c r="E273" t="s">
-        <v>383</v>
-      </c>
-      <c r="F273" t="s">
-        <v>821</v>
-      </c>
-      <c r="G273" t="s">
-        <v>882</v>
-      </c>
-      <c r="H273" t="s">
-        <v>883</v>
+        <v>418</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="D274" t="s">
-        <v>422</v>
-      </c>
-      <c r="E274" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="D275" t="s">
-        <v>423</v>
-      </c>
-      <c r="E275" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="24">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="D276" t="s">
-        <v>424</v>
-      </c>
-      <c r="E276" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="D277" t="s">
-        <v>425</v>
-      </c>
-      <c r="E277" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="D278" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="24">
       <c r="D279" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="D280" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="60">
-      <c r="A281" t="s">
-        <v>884</v>
-      </c>
-      <c r="B281">
-        <v>6</v>
-      </c>
-      <c r="C281" t="s">
-        <v>833</v>
-      </c>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="D281" t="s">
-        <v>388</v>
-      </c>
-      <c r="E281" t="s">
-        <v>401</v>
-      </c>
-      <c r="F281" t="s">
-        <v>821</v>
-      </c>
-      <c r="G281" t="s">
-        <v>876</v>
-      </c>
-      <c r="H281" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="36">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="D282" t="s">
-        <v>389</v>
-      </c>
-      <c r="E282" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="36">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="72">
+      <c r="A283" t="s">
+        <v>880</v>
+      </c>
+      <c r="B283" t="s">
+        <v>857</v>
+      </c>
+      <c r="C283" t="s">
+        <v>825</v>
+      </c>
       <c r="D283" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="E283" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="48">
+        <v>392</v>
+      </c>
+      <c r="F283" t="s">
+        <v>829</v>
+      </c>
+      <c r="G283" t="s">
+        <v>890</v>
+      </c>
+      <c r="H283" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="D284" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="E284" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" ht="36">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="D285" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="E285" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="24">
       <c r="D286" t="s">
-        <v>393</v>
+        <v>433</v>
+      </c>
+      <c r="E286" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="D287" t="s">
-        <v>394</v>
+        <v>434</v>
+      </c>
+      <c r="E287" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="D288" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="D289" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="D290" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="60">
+      <c r="A291" t="s">
+        <v>892</v>
+      </c>
+      <c r="B291">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>841</v>
+      </c>
+      <c r="D291" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="D291" t="s">
+      <c r="E291" t="s">
+        <v>410</v>
+      </c>
+      <c r="F291" t="s">
+        <v>829</v>
+      </c>
+      <c r="G291" t="s">
+        <v>884</v>
+      </c>
+      <c r="H291" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="36">
+      <c r="D292" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="D292" t="s">
+      <c r="E292" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="36">
+      <c r="D293" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="D293" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="E293" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="48">
       <c r="D294" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" ht="36">
-      <c r="A295" t="s">
+      <c r="E294" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="36">
+      <c r="D295" t="s">
+        <v>401</v>
+      </c>
+      <c r="E295" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="D296" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="D297" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="D298" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="D299" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="D300" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="D301" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="D302" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="D303" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="D304" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="36">
+      <c r="A305" t="s">
+        <v>897</v>
+      </c>
+      <c r="B305" t="s">
+        <v>761</v>
+      </c>
+      <c r="C305" t="s">
+        <v>833</v>
+      </c>
+      <c r="D305" t="s">
+        <v>370</v>
+      </c>
+      <c r="E305" t="s">
+        <v>380</v>
+      </c>
+      <c r="F305" t="s">
+        <v>790</v>
+      </c>
+      <c r="G305" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="24">
+      <c r="D306" t="s">
+        <v>371</v>
+      </c>
+      <c r="E306" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="36">
+      <c r="D307" t="s">
+        <v>372</v>
+      </c>
+      <c r="E307" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="D308" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="D309" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="D310" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="D311" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="D312" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="D313" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="D314" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="48">
+      <c r="A315" t="s">
         <v>889</v>
       </c>
-      <c r="B295" t="s">
-        <v>753</v>
-      </c>
-      <c r="C295" t="s">
-        <v>825</v>
-      </c>
-      <c r="D295" t="s">
-        <v>361</v>
-      </c>
-      <c r="E295" t="s">
-        <v>371</v>
-      </c>
-      <c r="F295" t="s">
-        <v>782</v>
-      </c>
-      <c r="G295" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="24">
-      <c r="D296" t="s">
+      <c r="B315">
+        <v>4</v>
+      </c>
+      <c r="C315" t="s">
+        <v>785</v>
+      </c>
+      <c r="D315" t="s">
+        <v>383</v>
+      </c>
+      <c r="E315" t="s">
         <v>362</v>
       </c>
-      <c r="E296" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" ht="36">
-      <c r="D297" t="s">
+      <c r="F315" t="s">
+        <v>893</v>
+      </c>
+      <c r="G315" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="60">
+      <c r="D316" t="s">
+        <v>384</v>
+      </c>
+      <c r="E316" t="s">
         <v>363</v>
       </c>
-      <c r="E297" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="D298" t="s">
+    </row>
+    <row r="317" spans="1:7" ht="72">
+      <c r="D317" t="s">
+        <v>385</v>
+      </c>
+      <c r="E317" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
-      <c r="D299" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="D300" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="D301" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="D302" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="D303" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="D304" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" ht="48">
-      <c r="A305" t="s">
-        <v>881</v>
-      </c>
-      <c r="B305">
-        <v>4</v>
-      </c>
-      <c r="C305" t="s">
-        <v>777</v>
-      </c>
-      <c r="D305" t="s">
-        <v>374</v>
-      </c>
-      <c r="E305" t="s">
-        <v>353</v>
-      </c>
-      <c r="F305" t="s">
-        <v>885</v>
-      </c>
-      <c r="G305" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" ht="60">
-      <c r="D306" t="s">
-        <v>375</v>
-      </c>
-      <c r="E306" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="72">
-      <c r="D307" t="s">
-        <v>376</v>
-      </c>
-      <c r="E307" t="s">
+    <row r="318" spans="1:7" ht="24">
+      <c r="D318" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="D319" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="24">
+      <c r="D320" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="60">
+      <c r="D321" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="24">
-      <c r="D308" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="D309" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" ht="24">
-      <c r="D310" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" ht="60">
-      <c r="D311" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="D312" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="D313" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="D314" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" ht="24">
-      <c r="D315" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="D316" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="D317" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="72">
-      <c r="A318" t="s">
-        <v>887</v>
-      </c>
-      <c r="B318">
-        <v>9</v>
-      </c>
-      <c r="C318" t="s">
-        <v>777</v>
-      </c>
-      <c r="D318" t="s">
+    <row r="322" spans="1:8">
+      <c r="D322" t="s">
         <v>356</v>
-      </c>
-      <c r="E318" t="s">
-        <v>340</v>
-      </c>
-      <c r="F318" t="s">
-        <v>810</v>
-      </c>
-      <c r="G318" t="s">
-        <v>890</v>
-      </c>
-      <c r="H318" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="36">
-      <c r="D319" t="s">
-        <v>357</v>
-      </c>
-      <c r="E319" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" ht="24">
-      <c r="D320" t="s">
-        <v>358</v>
-      </c>
-      <c r="E320" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" ht="72">
-      <c r="D321" t="s">
-        <v>359</v>
-      </c>
-      <c r="E321" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="36">
-      <c r="D322" t="s">
-        <v>360</v>
-      </c>
-      <c r="E322" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="323" spans="1:8">
       <c r="D323" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="D324" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="24">
       <c r="D325" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="D326" t="s">
-        <v>731</v>
+        <v>360</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="D327" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="72">
+      <c r="A328" t="s">
+        <v>895</v>
+      </c>
+      <c r="B328">
+        <v>9</v>
+      </c>
+      <c r="C328" t="s">
+        <v>785</v>
+      </c>
       <c r="D328" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="84">
-      <c r="A329" t="s">
-        <v>892</v>
-      </c>
-      <c r="B329">
-        <v>8</v>
-      </c>
-      <c r="C329" t="s">
-        <v>777</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="E328" t="s">
+        <v>349</v>
+      </c>
+      <c r="F328" t="s">
+        <v>818</v>
+      </c>
+      <c r="G328" t="s">
+        <v>898</v>
+      </c>
+      <c r="H328" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="36">
       <c r="D329" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="E329" t="s">
-        <v>323</v>
-      </c>
-      <c r="F329" t="s">
-        <v>810</v>
-      </c>
-      <c r="G329" t="s">
-        <v>903</v>
-      </c>
-      <c r="H329" t="s">
-        <v>893</v>
+        <v>350</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="24">
       <c r="D330" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="E330" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="48">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="72">
       <c r="D331" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E331" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" ht="24">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="36">
       <c r="D332" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="E332" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="D333" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="24">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="D334" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="D335" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="D336" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" ht="24">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="D337" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" ht="84">
-      <c r="A338" t="s">
-        <v>894</v>
-      </c>
-      <c r="B338">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="D338" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="84">
+      <c r="A339" t="s">
+        <v>900</v>
+      </c>
+      <c r="B339">
         <v>8</v>
       </c>
-      <c r="C338" t="s">
-        <v>777</v>
-      </c>
-      <c r="D338" t="s">
-        <v>327</v>
-      </c>
-      <c r="E338" t="s">
+      <c r="C339" t="s">
+        <v>785</v>
+      </c>
+      <c r="D339" t="s">
+        <v>354</v>
+      </c>
+      <c r="E339" t="s">
+        <v>332</v>
+      </c>
+      <c r="F339" t="s">
+        <v>818</v>
+      </c>
+      <c r="G339" t="s">
+        <v>911</v>
+      </c>
+      <c r="H339" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="24">
+      <c r="D340" t="s">
+        <v>324</v>
+      </c>
+      <c r="E340" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="48">
+      <c r="D341" t="s">
+        <v>325</v>
+      </c>
+      <c r="E341" t="s">
         <v>334</v>
       </c>
-      <c r="F338" t="s">
-        <v>810</v>
-      </c>
-      <c r="G338" t="s">
-        <v>895</v>
-      </c>
-      <c r="H338" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="48">
-      <c r="D339" t="s">
-        <v>328</v>
-      </c>
-      <c r="E339" t="s">
+    </row>
+    <row r="342" spans="1:8" ht="24">
+      <c r="D342" t="s">
+        <v>326</v>
+      </c>
+      <c r="E342" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="36">
-      <c r="D340" t="s">
-        <v>329</v>
-      </c>
-      <c r="E340" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="D341" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
-      <c r="D342" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="343" spans="1:8">
       <c r="D343" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="24">
       <c r="D344" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" ht="84">
-      <c r="A345" t="s">
-        <v>897</v>
-      </c>
-      <c r="B345" t="s">
-        <v>849</v>
-      </c>
-      <c r="C345" t="s">
-        <v>898</v>
-      </c>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="D345" t="s">
-        <v>300</v>
-      </c>
-      <c r="E345" t="s">
-        <v>308</v>
-      </c>
-      <c r="F345" t="s">
-        <v>810</v>
-      </c>
-      <c r="G345" t="s">
-        <v>899</v>
-      </c>
-      <c r="H345" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" ht="60">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="D346" t="s">
-        <v>301</v>
-      </c>
-      <c r="E346" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="24">
       <c r="D347" t="s">
-        <v>302</v>
-      </c>
-      <c r="E347" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="84">
+      <c r="A348" t="s">
+        <v>902</v>
+      </c>
+      <c r="B348">
+        <v>8</v>
+      </c>
+      <c r="C348" t="s">
+        <v>785</v>
+      </c>
+      <c r="D348" t="s">
+        <v>336</v>
+      </c>
+      <c r="E348" t="s">
+        <v>343</v>
+      </c>
+      <c r="F348" t="s">
+        <v>818</v>
+      </c>
+      <c r="G348" t="s">
+        <v>903</v>
+      </c>
+      <c r="H348" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="48">
+      <c r="D349" t="s">
+        <v>337</v>
+      </c>
+      <c r="E349" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="36">
+      <c r="D350" t="s">
+        <v>338</v>
+      </c>
+      <c r="E350" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="D351" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="D352" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="D353" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="D354" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="84">
+      <c r="A355" t="s">
+        <v>905</v>
+      </c>
+      <c r="B355" t="s">
+        <v>857</v>
+      </c>
+      <c r="C355" t="s">
+        <v>906</v>
+      </c>
+      <c r="D355" t="s">
+        <v>309</v>
+      </c>
+      <c r="E355" t="s">
+        <v>317</v>
+      </c>
+      <c r="F355" t="s">
+        <v>818</v>
+      </c>
+      <c r="G355" t="s">
+        <v>907</v>
+      </c>
+      <c r="H355" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="60">
+      <c r="D356" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" ht="36">
-      <c r="D348" t="s">
-        <v>303</v>
-      </c>
-      <c r="E348" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
-      <c r="D349" t="s">
-        <v>304</v>
-      </c>
-      <c r="E349" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
-      <c r="D350" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" ht="24">
-      <c r="D351" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" ht="24">
-      <c r="D352" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" ht="72">
-      <c r="A353" t="s">
-        <v>901</v>
-      </c>
-      <c r="B353" t="s">
-        <v>902</v>
-      </c>
-      <c r="C353" t="s">
-        <v>777</v>
-      </c>
-      <c r="D353" t="s">
-        <v>313</v>
-      </c>
-      <c r="E353" t="s">
-        <v>290</v>
-      </c>
-      <c r="F353" t="s">
-        <v>810</v>
-      </c>
-      <c r="G353" t="s">
-        <v>904</v>
-      </c>
-      <c r="H353" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="24">
-      <c r="D354" t="s">
-        <v>314</v>
-      </c>
-      <c r="E354" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="D355" t="s">
-        <v>280</v>
-      </c>
-      <c r="E355" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" ht="24">
-      <c r="D356" t="s">
-        <v>281</v>
-      </c>
       <c r="E356" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="24">
       <c r="D357" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="24">
+        <v>311</v>
+      </c>
+      <c r="E357" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="36">
       <c r="D358" t="s">
-        <v>283</v>
+        <v>312</v>
+      </c>
+      <c r="E358" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="D359" t="s">
-        <v>284</v>
+        <v>313</v>
+      </c>
+      <c r="E359" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="D360" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="24">
       <c r="D361" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="24">
       <c r="D362" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="72">
+      <c r="A363" t="s">
+        <v>909</v>
+      </c>
+      <c r="B363" t="s">
+        <v>910</v>
+      </c>
+      <c r="C363" t="s">
+        <v>785</v>
+      </c>
       <c r="D363" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
+        <v>322</v>
+      </c>
+      <c r="E363" t="s">
+        <v>299</v>
+      </c>
+      <c r="F363" t="s">
+        <v>818</v>
+      </c>
+      <c r="G363" t="s">
+        <v>912</v>
+      </c>
+      <c r="H363" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="24">
       <c r="D364" t="s">
+        <v>323</v>
+      </c>
+      <c r="E364" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="D365" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" ht="108">
-      <c r="A365" t="s">
-        <v>906</v>
-      </c>
-      <c r="B365">
-        <v>6</v>
-      </c>
-      <c r="C365" t="s">
-        <v>842</v>
-      </c>
-      <c r="D365" t="s">
-        <v>294</v>
-      </c>
       <c r="E365" t="s">
-        <v>270</v>
-      </c>
-      <c r="F365" t="s">
-        <v>810</v>
-      </c>
-      <c r="G365" t="s">
-        <v>907</v>
-      </c>
-      <c r="H365" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" ht="48">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="24">
       <c r="D366" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E366" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="24">
       <c r="D367" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="24">
       <c r="D368" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="369" spans="1:8">
       <c r="D369" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="72">
-      <c r="A370" t="s">
-        <v>909</v>
-      </c>
-      <c r="B370">
-        <v>4</v>
-      </c>
-      <c r="C370" t="s">
-        <v>777</v>
-      </c>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="D370" t="s">
-        <v>272</v>
-      </c>
-      <c r="E370" t="s">
-        <v>278</v>
-      </c>
-      <c r="F370" t="s">
-        <v>810</v>
-      </c>
-      <c r="G370" t="s">
-        <v>910</v>
-      </c>
-      <c r="H370" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" ht="36">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="D371" t="s">
-        <v>273</v>
-      </c>
-      <c r="E371" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" ht="24">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="D372" t="s">
-        <v>274</v>
-      </c>
-      <c r="E372" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="D373" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" ht="24">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="D374" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="108">
+      <c r="A375" t="s">
+        <v>914</v>
+      </c>
+      <c r="B375">
+        <v>6</v>
+      </c>
+      <c r="C375" t="s">
+        <v>850</v>
+      </c>
       <c r="D375" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" ht="60">
-      <c r="A376" t="s">
-        <v>912</v>
-      </c>
-      <c r="B376" t="s">
-        <v>913</v>
-      </c>
-      <c r="C376" t="s">
-        <v>898</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E375" t="s">
+        <v>279</v>
+      </c>
+      <c r="F375" t="s">
+        <v>818</v>
+      </c>
+      <c r="G375" t="s">
+        <v>915</v>
+      </c>
+      <c r="H375" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="48">
       <c r="D376" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="E376" t="s">
-        <v>268</v>
-      </c>
-      <c r="F376" t="s">
-        <v>810</v>
-      </c>
-      <c r="G376" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" ht="60">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="D377" t="s">
-        <v>261</v>
-      </c>
-      <c r="E377" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" ht="24">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="D378" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="D379" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="72">
+      <c r="A380" t="s">
+        <v>917</v>
+      </c>
+      <c r="B380">
+        <v>4</v>
+      </c>
+      <c r="C380" t="s">
+        <v>785</v>
+      </c>
       <c r="D380" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="E380" t="s">
+        <v>287</v>
+      </c>
+      <c r="F380" t="s">
+        <v>818</v>
+      </c>
+      <c r="G380" t="s">
+        <v>918</v>
+      </c>
+      <c r="H380" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="36">
       <c r="D381" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
+        <v>282</v>
+      </c>
+      <c r="E381" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="24">
       <c r="D382" t="s">
-        <v>266</v>
+        <v>283</v>
+      </c>
+      <c r="E382" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="383" spans="1:8">
       <c r="D383" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="24">
       <c r="D384" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" ht="72">
-      <c r="A385" t="s">
-        <v>915</v>
-      </c>
-      <c r="B385">
-        <v>6</v>
-      </c>
-      <c r="C385" t="s">
-        <v>916</v>
-      </c>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="D385" t="s">
-        <v>237</v>
-      </c>
-      <c r="E385" t="s">
-        <v>256</v>
-      </c>
-      <c r="F385" t="s">
-        <v>821</v>
-      </c>
-      <c r="G385" t="s">
-        <v>917</v>
-      </c>
-      <c r="H385" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" ht="48">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="60">
+      <c r="A386" t="s">
+        <v>920</v>
+      </c>
+      <c r="B386" t="s">
+        <v>921</v>
+      </c>
+      <c r="C386" t="s">
+        <v>906</v>
+      </c>
       <c r="D386" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="E386" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="36">
+        <v>277</v>
+      </c>
+      <c r="F386" t="s">
+        <v>818</v>
+      </c>
+      <c r="G386" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="60">
       <c r="D387" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="E387" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="36">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="24">
       <c r="D388" t="s">
-        <v>240</v>
-      </c>
-      <c r="E388" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" ht="24">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="D389" t="s">
-        <v>617</v>
-      </c>
-      <c r="E389" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" ht="36">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="D390" t="s">
-        <v>241</v>
-      </c>
-      <c r="E390" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
     </row>
     <row r="391" spans="1:8">
       <c r="D391" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="392" spans="1:8">
       <c r="D392" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" ht="36">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="D393" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="394" spans="1:8">
       <c r="D394" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="72">
+      <c r="A395" t="s">
+        <v>923</v>
+      </c>
+      <c r="B395">
+        <v>6</v>
+      </c>
+      <c r="C395" t="s">
+        <v>924</v>
+      </c>
       <c r="D395" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" ht="24">
+        <v>246</v>
+      </c>
+      <c r="E395" t="s">
+        <v>265</v>
+      </c>
+      <c r="F395" t="s">
+        <v>829</v>
+      </c>
+      <c r="G395" t="s">
+        <v>925</v>
+      </c>
+      <c r="H395" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="48">
       <c r="D396" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="E396" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="36">
       <c r="D397" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="E397" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="36">
       <c r="D398" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
+        <v>249</v>
+      </c>
+      <c r="E398" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="24">
       <c r="D399" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
+        <v>626</v>
+      </c>
+      <c r="E399" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="36">
       <c r="D400" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="401" spans="1:8">
+      <c r="E400" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4">
       <c r="D401" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="4:4">
       <c r="D402" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="4:4" ht="36">
       <c r="D403" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="4:4">
       <c r="D404" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="405" spans="4:4">
       <c r="D405" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="4:4" ht="24">
       <c r="D406" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="60">
-      <c r="A407" t="s">
-        <v>919</v>
-      </c>
-      <c r="B407">
+    <row r="407" spans="4:4">
+      <c r="D407" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4">
+      <c r="D408" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="409" spans="4:4">
+      <c r="D409" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="410" spans="4:4">
+      <c r="D410" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4">
+      <c r="D411" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4">
+      <c r="D412" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4">
+      <c r="D413" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4">
+      <c r="D414" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4">
+      <c r="D415" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="416" spans="4:4">
+      <c r="D416" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" ht="60">
+      <c r="A417" t="s">
+        <v>927</v>
+      </c>
+      <c r="B417">
         <v>5</v>
       </c>
-      <c r="C407" t="s">
-        <v>920</v>
-      </c>
-      <c r="D407" t="s">
-        <v>218</v>
-      </c>
-      <c r="E407" t="s">
-        <v>236</v>
-      </c>
-      <c r="F407" t="s">
-        <v>921</v>
-      </c>
-      <c r="G407" t="s">
-        <v>922</v>
-      </c>
-      <c r="H407" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" ht="36">
-      <c r="D408" t="s">
-        <v>219</v>
-      </c>
-      <c r="E408" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" ht="36">
-      <c r="D409" t="s">
-        <v>220</v>
-      </c>
-      <c r="E409" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" ht="24">
-      <c r="D410" t="s">
-        <v>221</v>
-      </c>
-      <c r="E410" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
-      <c r="D411" t="s">
-        <v>222</v>
-      </c>
-      <c r="E411" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" ht="36">
-      <c r="D412" t="s">
-        <v>223</v>
-      </c>
-      <c r="E412" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" ht="24">
-      <c r="D413" t="s">
-        <v>224</v>
-      </c>
-      <c r="E413" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" ht="36">
-      <c r="D414" t="s">
-        <v>225</v>
-      </c>
-      <c r="E414" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
-      <c r="D415" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
-      <c r="D416" t="s">
+      <c r="C417" t="s">
+        <v>928</v>
+      </c>
+      <c r="D417" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="417" spans="1:8">
-      <c r="D417" t="s">
+      <c r="E417" t="s">
+        <v>245</v>
+      </c>
+      <c r="F417" t="s">
+        <v>929</v>
+      </c>
+      <c r="G417" t="s">
+        <v>930</v>
+      </c>
+      <c r="H417" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" ht="36">
+      <c r="D418" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="418" spans="1:8">
-      <c r="D418" t="s">
+      <c r="E418" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="36">
+      <c r="D419" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="419" spans="1:8">
-      <c r="D419" t="s">
+      <c r="E419" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" ht="24">
+      <c r="D420" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="420" spans="1:8">
-      <c r="D420" t="s">
-        <v>231</v>
+      <c r="E420" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="421" spans="1:8">
       <c r="D421" t="s">
+        <v>231</v>
+      </c>
+      <c r="E421" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="36">
+      <c r="D422" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="422" spans="1:8">
-      <c r="D422" t="s">
+      <c r="E422" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" ht="24">
+      <c r="D423" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="423" spans="1:8">
-      <c r="D423" t="s">
+      <c r="E423" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" ht="36">
+      <c r="D424" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="424" spans="1:8">
-      <c r="D424" t="s">
+      <c r="E424" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="D425" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="84">
-      <c r="A425" t="s">
-        <v>924</v>
-      </c>
-      <c r="B425">
-        <v>6</v>
-      </c>
-      <c r="C425" t="s">
-        <v>825</v>
-      </c>
-      <c r="D425" t="s">
-        <v>203</v>
-      </c>
-      <c r="E425" t="s">
-        <v>213</v>
-      </c>
-      <c r="F425" t="s">
-        <v>925</v>
-      </c>
-      <c r="G425" t="s">
-        <v>926</v>
-      </c>
-      <c r="H425" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" ht="48">
+    <row r="426" spans="1:8">
       <c r="D426" t="s">
-        <v>204</v>
-      </c>
-      <c r="E426" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" ht="36">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="D427" t="s">
-        <v>205</v>
-      </c>
-      <c r="E427" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" ht="36">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="D428" t="s">
-        <v>206</v>
-      </c>
-      <c r="E428" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" ht="24">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="D429" t="s">
-        <v>207</v>
-      </c>
-      <c r="E429" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
     </row>
     <row r="430" spans="1:8">
       <c r="D430" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="431" spans="1:8">
       <c r="D431" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="432" spans="1:8">
       <c r="D432" t="s">
-        <v>736</v>
+        <v>242</v>
       </c>
     </row>
     <row r="433" spans="1:8">
       <c r="D433" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
     </row>
     <row r="434" spans="1:8">
       <c r="D434" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" ht="84">
+      <c r="A435" t="s">
+        <v>932</v>
+      </c>
+      <c r="B435">
+        <v>6</v>
+      </c>
+      <c r="C435" t="s">
+        <v>833</v>
+      </c>
       <c r="D435" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="E435" t="s">
+        <v>222</v>
+      </c>
+      <c r="F435" t="s">
+        <v>933</v>
+      </c>
+      <c r="G435" t="s">
+        <v>934</v>
+      </c>
+      <c r="H435" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="48">
       <c r="D436" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="E436" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" ht="36">
       <c r="D437" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" ht="84">
-      <c r="A438" t="s">
-        <v>928</v>
-      </c>
-      <c r="B438">
-        <v>6</v>
-      </c>
-      <c r="C438" t="s">
-        <v>850</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E437" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="36">
       <c r="D438" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="E438" t="s">
-        <v>173</v>
-      </c>
-      <c r="F438" t="s">
-        <v>810</v>
-      </c>
-      <c r="G438" t="s">
-        <v>929</v>
-      </c>
-      <c r="H438" t="s">
-        <v>930</v>
+        <v>180</v>
       </c>
     </row>
     <row r="439" spans="1:8" ht="24">
       <c r="D439" t="s">
-        <v>736</v>
+        <v>216</v>
       </c>
       <c r="E439" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" ht="24">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="D440" t="s">
-        <v>177</v>
-      </c>
-      <c r="E440" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
     </row>
     <row r="441" spans="1:8">
       <c r="D441" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="442" spans="1:8">
       <c r="D442" t="s">
-        <v>640</v>
+        <v>744</v>
       </c>
     </row>
     <row r="443" spans="1:8">
       <c r="D443" t="s">
-        <v>731</v>
+        <v>219</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="D444" t="s">
-        <v>179</v>
+        <v>649</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="D445" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8" ht="60">
-      <c r="A446" t="s">
-        <v>931</v>
-      </c>
-      <c r="B446">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="D446" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="D447" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" ht="84">
+      <c r="A448" t="s">
+        <v>936</v>
+      </c>
+      <c r="B448">
         <v>6</v>
       </c>
-      <c r="C446" t="s">
-        <v>898</v>
-      </c>
-      <c r="D446" t="s">
-        <v>181</v>
-      </c>
-      <c r="E446" t="s">
-        <v>160</v>
-      </c>
-      <c r="F446" t="s">
-        <v>932</v>
-      </c>
-      <c r="G446" t="s">
-        <v>939</v>
-      </c>
-      <c r="H446" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" ht="24">
-      <c r="D447" t="s">
+      <c r="C448" t="s">
+        <v>858</v>
+      </c>
+      <c r="D448" t="s">
+        <v>185</v>
+      </c>
+      <c r="E448" t="s">
         <v>182</v>
       </c>
-      <c r="E447" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" ht="60">
-      <c r="D448" t="s">
-        <v>704</v>
-      </c>
-      <c r="E448" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8" ht="48">
+      <c r="F448" t="s">
+        <v>818</v>
+      </c>
+      <c r="G448" t="s">
+        <v>937</v>
+      </c>
+      <c r="H448" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" ht="24">
       <c r="D449" t="s">
+        <v>744</v>
+      </c>
+      <c r="E449" t="s">
         <v>183</v>
       </c>
-      <c r="E449" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" ht="72">
+    </row>
+    <row r="450" spans="1:8" ht="24">
       <c r="D450" t="s">
+        <v>186</v>
+      </c>
+      <c r="E450" t="s">
         <v>184</v>
-      </c>
-      <c r="E450" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="451" spans="1:8">
       <c r="D451" t="s">
-        <v>185</v>
-      </c>
-      <c r="E451" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="452" spans="1:8">
       <c r="D452" t="s">
-        <v>529</v>
+        <v>649</v>
       </c>
     </row>
     <row r="453" spans="1:8">
       <c r="D453" t="s">
-        <v>186</v>
+        <v>740</v>
       </c>
     </row>
     <row r="454" spans="1:8">
       <c r="D454" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="455" spans="1:8">
       <c r="D455" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" ht="60">
+      <c r="A456" t="s">
+        <v>939</v>
+      </c>
+      <c r="B456">
+        <v>6</v>
+      </c>
+      <c r="C456" t="s">
+        <v>906</v>
+      </c>
       <c r="D456" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="E456" t="s">
+        <v>169</v>
+      </c>
+      <c r="F456" t="s">
+        <v>940</v>
+      </c>
+      <c r="G456" t="s">
+        <v>947</v>
+      </c>
+      <c r="H456" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" ht="24">
       <c r="D457" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="E457" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" ht="60">
       <c r="D458" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
+        <v>713</v>
+      </c>
+      <c r="E458" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" ht="48">
       <c r="D459" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="460" spans="1:8">
+      <c r="E459" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" ht="72">
       <c r="D460" t="s">
         <v>193</v>
+      </c>
+      <c r="E460" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="461" spans="1:8">
       <c r="D461" t="s">
         <v>194</v>
       </c>
+      <c r="E461" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="462" spans="1:8">
       <c r="D462" t="s">
-        <v>195</v>
+        <v>538</v>
       </c>
     </row>
     <row r="463" spans="1:8">
       <c r="D463" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="D464" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="84">
-      <c r="A464" t="s">
-        <v>941</v>
-      </c>
-      <c r="B464">
-        <v>12</v>
-      </c>
-      <c r="C464" t="s">
-        <v>942</v>
-      </c>
-      <c r="D464" t="s">
-        <v>166</v>
-      </c>
-      <c r="E464" t="s">
-        <v>149</v>
-      </c>
-      <c r="F464" t="s">
-        <v>782</v>
-      </c>
-      <c r="G464" t="s">
-        <v>933</v>
-      </c>
-      <c r="H464" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" ht="24">
+    <row r="465" spans="1:8">
       <c r="D465" t="s">
-        <v>167</v>
-      </c>
-      <c r="E465" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" ht="60">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="D466" t="s">
-        <v>168</v>
-      </c>
-      <c r="E466" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8" ht="48">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="D467" t="s">
-        <v>147</v>
-      </c>
-      <c r="E467" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8" ht="36">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="D468" t="s">
-        <v>736</v>
-      </c>
-      <c r="E468" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
     </row>
     <row r="469" spans="1:8">
       <c r="D469" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8" ht="84">
-      <c r="A470" t="s">
-        <v>935</v>
-      </c>
-      <c r="B470">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="D470" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="D471" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="D472" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="D473" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" ht="84">
+      <c r="A474" t="s">
+        <v>949</v>
+      </c>
+      <c r="B474">
+        <v>12</v>
+      </c>
+      <c r="C474" t="s">
+        <v>950</v>
+      </c>
+      <c r="D474" t="s">
+        <v>175</v>
+      </c>
+      <c r="E474" t="s">
+        <v>158</v>
+      </c>
+      <c r="F474" t="s">
+        <v>790</v>
+      </c>
+      <c r="G474" t="s">
+        <v>941</v>
+      </c>
+      <c r="H474" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" ht="24">
+      <c r="D475" t="s">
+        <v>176</v>
+      </c>
+      <c r="E475" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" ht="60">
+      <c r="D476" t="s">
+        <v>177</v>
+      </c>
+      <c r="E476" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" ht="48">
+      <c r="D477" t="s">
+        <v>156</v>
+      </c>
+      <c r="E477" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" ht="36">
+      <c r="D478" t="s">
+        <v>744</v>
+      </c>
+      <c r="E478" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="D479" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" ht="84">
+      <c r="A480" t="s">
+        <v>943</v>
+      </c>
+      <c r="B480">
         <v>6</v>
       </c>
-      <c r="C470" t="s">
-        <v>920</v>
-      </c>
-      <c r="D470" t="s">
-        <v>154</v>
-      </c>
-      <c r="E470" t="s">
-        <v>137</v>
-      </c>
-      <c r="F470" t="s">
-        <v>782</v>
-      </c>
-      <c r="G470" t="s">
-        <v>936</v>
-      </c>
-      <c r="H470" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8" ht="36">
-      <c r="D471" t="s">
-        <v>155</v>
-      </c>
-      <c r="E471" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8" ht="48">
-      <c r="D472" t="s">
-        <v>156</v>
-      </c>
-      <c r="E472" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" ht="24">
-      <c r="D473" t="s">
-        <v>157</v>
-      </c>
-      <c r="E473" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8">
-      <c r="D474" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8">
-      <c r="D475" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8">
-      <c r="D476" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
-      <c r="D477" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" ht="96">
-      <c r="A478" t="s">
-        <v>938</v>
-      </c>
-      <c r="B478">
-        <v>16</v>
-      </c>
-      <c r="C478" t="s">
-        <v>850</v>
-      </c>
-      <c r="D478" t="s">
-        <v>141</v>
-      </c>
-      <c r="E478" t="s">
-        <v>145</v>
-      </c>
-      <c r="F478" t="s">
-        <v>821</v>
-      </c>
-      <c r="G478" t="s">
-        <v>943</v>
-      </c>
-      <c r="H478" t="s">
+      <c r="C480" t="s">
+        <v>928</v>
+      </c>
+      <c r="D480" t="s">
+        <v>163</v>
+      </c>
+      <c r="E480" t="s">
+        <v>146</v>
+      </c>
+      <c r="F480" t="s">
+        <v>790</v>
+      </c>
+      <c r="G480" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" ht="48">
-      <c r="D479" t="s">
-        <v>142</v>
-      </c>
-      <c r="E479" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" ht="36">
-      <c r="D480" t="s">
-        <v>647</v>
-      </c>
-      <c r="E480" t="s">
-        <v>107</v>
+      <c r="H480" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="481" spans="1:8" ht="36">
       <c r="D481" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="E481" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" ht="48">
       <c r="D482" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8" ht="60">
-      <c r="A483" t="s">
-        <v>945</v>
-      </c>
-      <c r="B483" t="s">
-        <v>913</v>
-      </c>
-      <c r="C483" t="s">
-        <v>842</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E482" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" ht="24">
       <c r="D483" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="E483" t="s">
-        <v>112</v>
-      </c>
-      <c r="F483" t="s">
-        <v>782</v>
-      </c>
-      <c r="G483" t="s">
-        <v>946</v>
-      </c>
-      <c r="H483" t="s">
-        <v>947</v>
+        <v>149</v>
       </c>
     </row>
     <row r="484" spans="1:8">
       <c r="D484" t="s">
-        <v>765</v>
-      </c>
-      <c r="E484" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8" ht="24">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
       <c r="D485" t="s">
-        <v>110</v>
-      </c>
-      <c r="E485" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="486" spans="1:8">
       <c r="D486" t="s">
-        <v>111</v>
-      </c>
-      <c r="E486" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="487" spans="1:8">
-      <c r="E487" t="s">
+      <c r="D487" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" ht="96">
+      <c r="A488" t="s">
+        <v>946</v>
+      </c>
+      <c r="B488">
+        <v>16</v>
+      </c>
+      <c r="C488" t="s">
+        <v>858</v>
+      </c>
+      <c r="D488" t="s">
+        <v>150</v>
+      </c>
+      <c r="E488" t="s">
+        <v>154</v>
+      </c>
+      <c r="F488" t="s">
+        <v>829</v>
+      </c>
+      <c r="G488" t="s">
+        <v>951</v>
+      </c>
+      <c r="H488" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" ht="48">
+      <c r="D489" t="s">
+        <v>151</v>
+      </c>
+      <c r="E489" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" ht="36">
+      <c r="D490" t="s">
+        <v>656</v>
+      </c>
+      <c r="E490" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="11" customHeight="1">
-      <c r="A488" t="s">
-        <v>948</v>
-      </c>
-      <c r="B488">
+    <row r="491" spans="1:8" ht="36">
+      <c r="D491" t="s">
+        <v>152</v>
+      </c>
+      <c r="E491" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="D492" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" ht="60">
+      <c r="A493" t="s">
+        <v>953</v>
+      </c>
+      <c r="B493" t="s">
+        <v>921</v>
+      </c>
+      <c r="C493" t="s">
+        <v>850</v>
+      </c>
+      <c r="D493" t="s">
+        <v>118</v>
+      </c>
+      <c r="E493" t="s">
+        <v>121</v>
+      </c>
+      <c r="F493" t="s">
+        <v>790</v>
+      </c>
+      <c r="G493" t="s">
+        <v>954</v>
+      </c>
+      <c r="H493" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="D494" t="s">
+        <v>773</v>
+      </c>
+      <c r="E494" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" ht="24">
+      <c r="D495" t="s">
+        <v>119</v>
+      </c>
+      <c r="E495" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="D496" t="s">
+        <v>120</v>
+      </c>
+      <c r="E496" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="E497" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" ht="11" customHeight="1">
+      <c r="A498" t="s">
+        <v>956</v>
+      </c>
+      <c r="B498">
         <v>12</v>
       </c>
-      <c r="C488" t="s">
-        <v>833</v>
-      </c>
-      <c r="D488" t="s">
-        <v>117</v>
-      </c>
-      <c r="E488" t="s">
-        <v>129</v>
-      </c>
-      <c r="F488" t="s">
-        <v>821</v>
-      </c>
-      <c r="G488" t="s">
-        <v>949</v>
-      </c>
-      <c r="H488" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" ht="11" customHeight="1">
-      <c r="D489" t="s">
-        <v>118</v>
-      </c>
-      <c r="E489" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8" ht="11" customHeight="1">
-      <c r="D490" t="s">
-        <v>119</v>
-      </c>
-      <c r="E490" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8" ht="11" customHeight="1">
-      <c r="D491" t="s">
-        <v>120</v>
-      </c>
-      <c r="E491" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8" ht="11" customHeight="1">
-      <c r="D492" t="s">
-        <v>121</v>
-      </c>
-      <c r="E492" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8" ht="11" customHeight="1">
-      <c r="D493" t="s">
-        <v>122</v>
-      </c>
-      <c r="E493" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8" ht="11" customHeight="1">
-      <c r="D494" t="s">
-        <v>123</v>
-      </c>
-      <c r="E494" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" ht="11" customHeight="1">
-      <c r="D495" t="s">
-        <v>124</v>
-      </c>
-      <c r="E495" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8" ht="11" customHeight="1">
-      <c r="D496" t="s">
-        <v>125</v>
-      </c>
-      <c r="E496" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" ht="11" customHeight="1">
-      <c r="D497" t="s">
+      <c r="C498" t="s">
+        <v>841</v>
+      </c>
+      <c r="D498" t="s">
         <v>126</v>
       </c>
-      <c r="E497" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" ht="11" customHeight="1">
-      <c r="D498" t="s">
-        <v>127</v>
-      </c>
       <c r="E498" t="s">
-        <v>90</v>
+        <v>138</v>
+      </c>
+      <c r="F498" t="s">
+        <v>829</v>
+      </c>
+      <c r="G498" t="s">
+        <v>957</v>
+      </c>
+      <c r="H498" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="499" spans="1:8" ht="11" customHeight="1">
       <c r="D499" t="s">
+        <v>127</v>
+      </c>
+      <c r="E499" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" ht="11" customHeight="1">
+      <c r="D500" t="s">
         <v>128</v>
       </c>
-      <c r="E499" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" ht="11" customHeight="1">
       <c r="E500" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" ht="11" customHeight="1">
+      <c r="D501" t="s">
+        <v>129</v>
+      </c>
+      <c r="E501" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" ht="11" customHeight="1">
+      <c r="D502" t="s">
+        <v>130</v>
+      </c>
+      <c r="E502" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" ht="11" customHeight="1">
+      <c r="D503" t="s">
+        <v>131</v>
+      </c>
+      <c r="E503" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" ht="11" customHeight="1">
+      <c r="D504" t="s">
+        <v>132</v>
+      </c>
+      <c r="E504" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" ht="11" customHeight="1">
+      <c r="D505" t="s">
+        <v>133</v>
+      </c>
+      <c r="E505" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" ht="11" customHeight="1">
+      <c r="D506" t="s">
+        <v>134</v>
+      </c>
+      <c r="E506" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" ht="11" customHeight="1">
+      <c r="D507" t="s">
+        <v>135</v>
+      </c>
+      <c r="E507" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" ht="11" customHeight="1">
+      <c r="D508" t="s">
+        <v>136</v>
+      </c>
+      <c r="E508" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" ht="11" customHeight="1">
+      <c r="D509" t="s">
+        <v>137</v>
+      </c>
+      <c r="E509" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" ht="11" customHeight="1">
+      <c r="E510" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="11" customHeight="1">
+      <c r="E511" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" ht="60">
+      <c r="A512" t="s">
+        <v>959</v>
+      </c>
+      <c r="B512">
+        <v>12</v>
+      </c>
+      <c r="C512" t="s">
+        <v>841</v>
+      </c>
+      <c r="D512" t="s">
+        <v>103</v>
+      </c>
+      <c r="E512" t="s">
+        <v>112</v>
+      </c>
+      <c r="F512" t="s">
+        <v>790</v>
+      </c>
+      <c r="G512" t="s">
+        <v>963</v>
+      </c>
+      <c r="H512" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" ht="21" customHeight="1">
+      <c r="D513" t="s">
+        <v>104</v>
+      </c>
+      <c r="E513" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" ht="16" customHeight="1">
+      <c r="D514" t="s">
+        <v>105</v>
+      </c>
+      <c r="E514" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" ht="12">
+      <c r="D515" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" ht="12">
+      <c r="D516" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" ht="12">
+      <c r="D517" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" ht="12">
+      <c r="D518" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" ht="12">
+      <c r="D519" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" ht="12">
+      <c r="D520" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" ht="12">
+      <c r="D521" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" ht="12">
+      <c r="D522" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" ht="72">
+      <c r="A523" t="s">
+        <v>965</v>
+      </c>
+      <c r="B523">
+        <v>6</v>
+      </c>
+      <c r="C523" t="s">
+        <v>928</v>
+      </c>
+      <c r="D523" t="s">
+        <v>115</v>
+      </c>
+      <c r="E523" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" ht="11" customHeight="1">
-      <c r="E501" t="s">
+      <c r="F523" t="s">
+        <v>960</v>
+      </c>
+      <c r="G523" t="s">
+        <v>961</v>
+      </c>
+      <c r="H523" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" ht="24">
+      <c r="D524" t="s">
+        <v>81</v>
+      </c>
+      <c r="E524" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="60">
-      <c r="A502" t="s">
-        <v>951</v>
-      </c>
-      <c r="B502">
-        <v>12</v>
-      </c>
-      <c r="C502" t="s">
-        <v>833</v>
-      </c>
-      <c r="D502" t="s">
+    <row r="525" spans="1:8" ht="36">
+      <c r="D525" t="s">
+        <v>82</v>
+      </c>
+      <c r="E525" t="s">
         <v>94</v>
-      </c>
-      <c r="E502" t="s">
-        <v>103</v>
-      </c>
-      <c r="F502" t="s">
-        <v>782</v>
-      </c>
-      <c r="G502" t="s">
-        <v>955</v>
-      </c>
-      <c r="H502" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" ht="21" customHeight="1">
-      <c r="D503" t="s">
-        <v>95</v>
-      </c>
-      <c r="E503" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" ht="16" customHeight="1">
-      <c r="D504" t="s">
-        <v>96</v>
-      </c>
-      <c r="E504" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" ht="12">
-      <c r="D505" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8" ht="12">
-      <c r="D506" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8" ht="12">
-      <c r="D507" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" ht="12">
-      <c r="D508" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8" ht="12">
-      <c r="D509" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8" ht="12">
-      <c r="D510" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" ht="12">
-      <c r="D511" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" ht="12">
-      <c r="D512" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" ht="72">
-      <c r="A513" t="s">
-        <v>957</v>
-      </c>
-      <c r="B513">
-        <v>6</v>
-      </c>
-      <c r="C513" t="s">
-        <v>920</v>
-      </c>
-      <c r="D513" t="s">
-        <v>106</v>
-      </c>
-      <c r="E513" t="s">
-        <v>83</v>
-      </c>
-      <c r="F513" t="s">
-        <v>952</v>
-      </c>
-      <c r="G513" t="s">
-        <v>953</v>
-      </c>
-      <c r="H513" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" ht="24">
-      <c r="D514" t="s">
-        <v>72</v>
-      </c>
-      <c r="E514" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8" ht="36">
-      <c r="D515" t="s">
-        <v>73</v>
-      </c>
-      <c r="E515" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8" ht="36">
-      <c r="D516" t="s">
-        <v>74</v>
-      </c>
-      <c r="E516" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8">
-      <c r="D517" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8" ht="24">
-      <c r="D518" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8">
-      <c r="D519" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8" ht="24">
-      <c r="D520" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8">
-      <c r="D521" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8">
-      <c r="D522" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
-      <c r="D523" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
-      <c r="D524" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" ht="72">
-      <c r="A525" t="s">
-        <v>960</v>
-      </c>
-      <c r="B525">
-        <v>6</v>
-      </c>
-      <c r="C525" t="s">
-        <v>920</v>
-      </c>
-      <c r="D525" t="s">
-        <v>51</v>
-      </c>
-      <c r="E525" t="s">
-        <v>60</v>
-      </c>
-      <c r="F525" t="s">
-        <v>961</v>
-      </c>
-      <c r="G525" t="s">
-        <v>962</v>
-      </c>
-      <c r="H525" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="526" spans="1:8" ht="36">
       <c r="D526" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E526" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8" ht="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
       <c r="D527" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" ht="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" ht="24">
       <c r="D528" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8" ht="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
       <c r="D529" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8" ht="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" ht="24">
       <c r="D530" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8" ht="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
       <c r="D531" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8" ht="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
       <c r="D532" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8" ht="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
       <c r="D533" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8" ht="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
       <c r="D534" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8" ht="84">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" ht="72">
       <c r="A535" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
       <c r="B535">
         <v>6</v>
       </c>
       <c r="C535" t="s">
-        <v>833</v>
+        <v>928</v>
       </c>
       <c r="D535" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E535" t="s">
         <v>69</v>
       </c>
       <c r="F535" t="s">
-        <v>932</v>
+        <v>969</v>
       </c>
       <c r="G535" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="H535" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" ht="36">
       <c r="D536" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E536" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="36">
+    <row r="537" spans="1:8" ht="12">
       <c r="D537" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" ht="12">
+      <c r="D538" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" ht="12">
+      <c r="D539" t="s">
         <v>64</v>
       </c>
-      <c r="E537" t="s">
+    </row>
+    <row r="540" spans="1:8" ht="12">
+      <c r="D540" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" ht="12">
+      <c r="D541" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" ht="12">
+      <c r="D542" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" ht="12">
+      <c r="D543" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" ht="12">
+      <c r="D544" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" ht="84">
+      <c r="A545" t="s">
+        <v>962</v>
+      </c>
+      <c r="B545">
+        <v>6</v>
+      </c>
+      <c r="C545" t="s">
+        <v>841</v>
+      </c>
+      <c r="D545" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="538" spans="1:8" ht="84">
-      <c r="D538" t="s">
-        <v>65</v>
-      </c>
-      <c r="E538" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
-      <c r="D539" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
-      <c r="D540" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8">
-      <c r="D541" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
-      <c r="D542" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8" ht="72">
-      <c r="A543" t="s">
-        <v>966</v>
-      </c>
-      <c r="B543">
-        <v>8</v>
-      </c>
-      <c r="C543" t="s">
-        <v>833</v>
-      </c>
-      <c r="D543" t="s">
-        <v>36</v>
-      </c>
-      <c r="E543" t="s">
-        <v>49</v>
-      </c>
-      <c r="F543" t="s">
-        <v>952</v>
-      </c>
-      <c r="G543" t="s">
-        <v>958</v>
-      </c>
-      <c r="H543" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8" ht="48">
-      <c r="D544" t="s">
-        <v>37</v>
-      </c>
-      <c r="E544" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="D545" t="s">
-        <v>38</v>
+      <c r="E545" t="s">
+        <v>78</v>
+      </c>
+      <c r="F545" t="s">
+        <v>940</v>
+      </c>
+      <c r="G545" t="s">
+        <v>972</v>
+      </c>
+      <c r="H545" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="546" spans="1:8">
       <c r="D546" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="E546" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" ht="36">
       <c r="D547" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="E547" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" ht="84">
       <c r="D548" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="E548" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="549" spans="1:8">
       <c r="D549" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="550" spans="1:8">
       <c r="D550" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="551" spans="1:8">
       <c r="D551" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="552" spans="1:8">
       <c r="D552" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" ht="72">
+      <c r="A553" t="s">
+        <v>974</v>
+      </c>
+      <c r="B553">
+        <v>8</v>
+      </c>
+      <c r="C553" t="s">
+        <v>841</v>
+      </c>
+      <c r="D553" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="553" spans="1:8">
-      <c r="D553" t="s">
+      <c r="E553" t="s">
+        <v>58</v>
+      </c>
+      <c r="F553" t="s">
+        <v>960</v>
+      </c>
+      <c r="G553" t="s">
+        <v>966</v>
+      </c>
+      <c r="H553" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" ht="48">
+      <c r="D554" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="554" spans="1:8">
-      <c r="D554" t="s">
-        <v>47</v>
+      <c r="E554" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="555" spans="1:8">
       <c r="D555" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="556" spans="1:8">
       <c r="D556" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8" ht="60">
-      <c r="A557" t="s">
-        <v>970</v>
-      </c>
-      <c r="B557">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="D557" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="D558" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="D559" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="D560" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="D561" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="D562" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="D563" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="D564" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="D565" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="D566" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" ht="60">
+      <c r="A567" t="s">
+        <v>978</v>
+      </c>
+      <c r="B567">
         <v>8</v>
       </c>
-      <c r="C557" t="s">
-        <v>833</v>
-      </c>
-      <c r="D557" t="s">
-        <v>17</v>
-      </c>
-      <c r="E557" t="s">
-        <v>34</v>
-      </c>
-      <c r="F557" t="s">
-        <v>952</v>
-      </c>
-      <c r="G557" t="s">
-        <v>971</v>
-      </c>
-      <c r="H557" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8" ht="24">
-      <c r="D558" t="s">
-        <v>18</v>
-      </c>
-      <c r="E558" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559" spans="1:8" ht="12">
-      <c r="D559" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8" ht="12">
-      <c r="D560" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8" ht="12">
-      <c r="D561" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="562" spans="1:8" ht="24">
-      <c r="D562" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8" ht="12">
-      <c r="D563" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8" ht="12">
-      <c r="D564" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="565" spans="1:8" ht="24">
-      <c r="D565" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="566" spans="1:8" ht="12">
-      <c r="D566" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8" ht="12">
+      <c r="C567" t="s">
+        <v>841</v>
+      </c>
       <c r="D567" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="568" spans="1:8" ht="12">
+      <c r="E567" t="s">
+        <v>43</v>
+      </c>
+      <c r="F567" t="s">
+        <v>960</v>
+      </c>
+      <c r="G567" t="s">
+        <v>979</v>
+      </c>
+      <c r="H567" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" ht="24">
       <c r="D568" t="s">
         <v>27</v>
+      </c>
+      <c r="E568" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8" ht="12">
@@ -7950,131 +7961,181 @@
     </row>
     <row r="570" spans="1:8" ht="12">
       <c r="D570" t="s">
-        <v>29</v>
+        <v>439</v>
       </c>
     </row>
     <row r="571" spans="1:8" ht="12">
       <c r="D571" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" ht="24">
+      <c r="D572" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8" ht="12">
-      <c r="D572" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="573" spans="1:8" ht="12">
       <c r="D573" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="574" spans="1:8" ht="12">
       <c r="D574" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" ht="24">
+      <c r="D575" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="60">
-      <c r="A575" t="s">
-        <v>973</v>
-      </c>
-      <c r="B575">
+    <row r="576" spans="1:8" ht="12">
+      <c r="D576" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" ht="12">
+      <c r="D577" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" ht="12">
+      <c r="D578" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" ht="12">
+      <c r="D579" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" ht="12">
+      <c r="D580" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" ht="12">
+      <c r="D581" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" ht="12">
+      <c r="D582" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" ht="12">
+      <c r="D583" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" ht="12">
+      <c r="D584" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" ht="60">
+      <c r="A585" t="s">
+        <v>981</v>
+      </c>
+      <c r="B585">
         <v>6</v>
       </c>
-      <c r="C575" t="s">
-        <v>817</v>
-      </c>
-      <c r="D575" t="s">
-        <v>1</v>
-      </c>
-      <c r="E575" t="s">
+      <c r="C585" t="s">
+        <v>825</v>
+      </c>
+      <c r="D585" t="s">
+        <v>3</v>
+      </c>
+      <c r="E585" t="s">
+        <v>17</v>
+      </c>
+      <c r="F585" t="s">
+        <v>960</v>
+      </c>
+      <c r="G585" t="s">
+        <v>975</v>
+      </c>
+      <c r="H585" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D586" t="s">
+        <v>4</v>
+      </c>
+      <c r="E586" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D587" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D588" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D589" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D590" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D591" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" ht="12.75" customHeight="1">
+      <c r="D592" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="4:4" ht="12.75" customHeight="1">
+      <c r="D593" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594" spans="4:4" ht="12.75" customHeight="1">
+      <c r="D594" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="595" spans="4:4" ht="12.75" customHeight="1">
+      <c r="D595" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="596" spans="4:4" ht="12.75" customHeight="1">
+      <c r="D596" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597" spans="4:4" ht="12.75" customHeight="1">
+      <c r="D597" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="598" spans="4:4" ht="12.75" customHeight="1">
+      <c r="D598" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="599" spans="4:4" ht="12.75" customHeight="1">
+      <c r="D599" t="s">
         <v>15</v>
       </c>
-      <c r="F575" t="s">
-        <v>952</v>
-      </c>
-      <c r="G575" t="s">
-        <v>967</v>
-      </c>
-      <c r="H575" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D576" t="s">
-        <v>2</v>
-      </c>
-      <c r="E576" t="s">
+    </row>
+    <row r="600" spans="4:4" ht="12.75" customHeight="1">
+      <c r="D600" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="577" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D577" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="578" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D578" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="579" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D579" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="580" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D580" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="581" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D581" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="582" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D582" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="583" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D583" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="584" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D584" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="585" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D585" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="586" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D586" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="587" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D587" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="588" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D588" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="589" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D589" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="590" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D590" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/RecipeListCornucopia.xlsx
+++ b/RecipeListCornucopia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="21600" windowHeight="12900" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="981">
   <si>
     <t>1 cup snow peas, trimmed and cut lengthwise into thin strips</t>
   </si>
   <si>
     <t>2 T sliced almonds, toasted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Soup or Stew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dessert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Dish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Dish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soup or Stew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soup or Stew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soup or Stew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. Add all the rest of the ingredients and cook on medium/low heat for about an hour. Enjoy!</t>
@@ -2510,9 +2547,6 @@
     <t>30 min</t>
   </si>
   <si>
-    <t>Main Course</t>
-  </si>
-  <si>
     <t>http://www.budgetbytes.com/2011/02/quick-curried-chick-peas/</t>
   </si>
   <si>
@@ -2549,10 +2583,6 @@
     <t>20 min</t>
   </si>
   <si>
-    <t>Main Course
-Soup or Stew</t>
-  </si>
-  <si>
     <t>http://www.budgetbytes.com/2012/10/chipotle-chicken-chili-or-c3/</t>
   </si>
   <si>
@@ -2568,11 +2598,6 @@
     <t>20 min</t>
   </si>
   <si>
-    <t>Side Dish
-Salad
-Main Course</t>
-  </si>
-  <si>
     <t>Mine</t>
   </si>
   <si>
@@ -2582,10 +2607,6 @@
     <t>1. Combine vinegar, soy sauce, sesame oil, ginger, and honey in a large bowl, stirring well with a whisk. Add salad greens, chicken, carrots, and snow peas; toss gently to coat. Sprinkle with almonds.</t>
   </si>
   <si>
-    <t>Salad
-Side Dish</t>
-  </si>
-  <si>
     <t>http://www.myrecipes.com/recipe/asian-chicken-salad-10000001809134/</t>
   </si>
   <si>
@@ -2694,10 +2715,6 @@
     <t>30  min</t>
   </si>
   <si>
-    <t>Main Course
-Side Dish</t>
-  </si>
-  <si>
     <t>http://www.eat-yourself-skinny.com/2012/01/shells-with-pesto-peas-sun-dried-tomatoes.html</t>
   </si>
   <si>
@@ -2788,10 +2805,6 @@
     <t>Hibiscus Ginger Punch</t>
   </si>
   <si>
-    <t>Dessert
-Side Dish</t>
-  </si>
-  <si>
     <t>http://www.thekitchn.com/recipe-lime-laden-fruit-salad-145096</t>
   </si>
   <si>
@@ -2837,10 +2850,6 @@
     <t>Tart Cherry Crumble</t>
   </si>
   <si>
-    <t>Main Dish
-Side Dish</t>
-  </si>
-  <si>
     <t>http://www.simplyrecipes.com/recipes/red_lentil_dal/</t>
   </si>
   <si>
@@ -2958,10 +2967,6 @@
     <t>Kale and Pasta Salad</t>
   </si>
   <si>
-    <t>Main Dish
-Salad</t>
-  </si>
-  <si>
     <t>http://www.budgetbytes.com/2013/01/kale-pasta-salad/</t>
   </si>
   <si>
@@ -3040,10 +3045,6 @@
     <t>Butternut-Bacon Stuffing</t>
   </si>
   <si>
-    <t>Main Dish
-Soup or Stew</t>
-  </si>
-  <si>
     <t>http://www.vegetariantimes.com/recipe/spicy-peanut-stew/</t>
   </si>
   <si>
@@ -3066,10 +3067,6 @@
   </si>
   <si>
     <t>Curried Rentil Lentil Soup with Lemon</t>
-  </si>
-  <si>
-    <t>Main Dish
-Soup or Stew</t>
   </si>
   <si>
     <t>http://www.vegetariantimes.com/recipe/curried-red-lentil-soup-with-lemon/</t>
@@ -3491,11 +3488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H600"/>
+  <dimension ref="A1:H599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3508,411 +3505,411 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="84">
       <c r="A2" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="D2" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="E2" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="F2" t="s">
-        <v>786</v>
+        <v>941</v>
       </c>
       <c r="G2" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="H2" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36">
       <c r="D3" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="E3" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24">
       <c r="D4" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="E4" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48">
       <c r="D5" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="E5" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="D6" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="D7" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="D8" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="D9" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60">
       <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>770</v>
+      </c>
+      <c r="C10" t="s">
+        <v>771</v>
+      </c>
+      <c r="D10" t="s">
+        <v>780</v>
+      </c>
+      <c r="E10" t="s">
         <v>760</v>
       </c>
-      <c r="B10" t="s">
-        <v>761</v>
-      </c>
-      <c r="C10" t="s">
-        <v>762</v>
-      </c>
-      <c r="D10" t="s">
-        <v>771</v>
-      </c>
-      <c r="E10" t="s">
-        <v>751</v>
-      </c>
       <c r="F10" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="G10" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="H10" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="D11" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="E11" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="D12" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="E12" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="D13" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="E13" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="D14" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="E14" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24">
       <c r="D15" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="E15" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="D16" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E16" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="D17" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="E17" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="84">
       <c r="A18" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D18" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E18" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="F18" t="s">
-        <v>799</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="H18" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="48">
       <c r="D19" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="E19" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24">
       <c r="D20" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="E20" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36">
       <c r="D21" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="E21" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="D22" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="D23" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="D24" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="D25" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="D26" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="D27" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="D28" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="D29" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="D30" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="D31" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="36">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="24">
       <c r="A32" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="B32" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="C32" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D32" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="E32" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F32" t="s">
-        <v>805</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="D33" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="E33" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="D34" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="E34" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="D35" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="E35" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="D36" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="E36" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="D37" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="D38" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="D39" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="60">
       <c r="A40" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F40" t="s">
-        <v>809</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="H40" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12">
       <c r="D41" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12">
       <c r="D42" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="24">
       <c r="D43" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12">
       <c r="D44" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12">
       <c r="D45" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12">
       <c r="D46" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12">
       <c r="D47" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="24">
@@ -3925,4220 +3922,4220 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="12"/>
+    <row r="50" spans="1:8" ht="48">
+      <c r="A50" t="s">
+        <v>797</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>811</v>
+      </c>
+      <c r="D50" t="s">
+        <v>688</v>
+      </c>
+      <c r="E50" t="s">
+        <v>689</v>
+      </c>
+      <c r="F50" t="s">
+        <v>819</v>
+      </c>
+      <c r="G50" t="s">
+        <v>803</v>
+      </c>
+      <c r="H50" t="s">
+        <v>804</v>
+      </c>
+    </row>
     <row r="51" spans="1:8" ht="48">
-      <c r="A51" t="s">
-        <v>789</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>804</v>
-      </c>
       <c r="D51" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="E51" t="s">
-        <v>680</v>
-      </c>
-      <c r="F51" t="s">
-        <v>814</v>
-      </c>
-      <c r="G51" t="s">
-        <v>795</v>
-      </c>
-      <c r="H51" t="s">
-        <v>796</v>
+        <v>686</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="48">
       <c r="D52" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="E52" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="48">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="D53" t="s">
-        <v>710</v>
-      </c>
-      <c r="E53" t="s">
-        <v>678</v>
+        <v>720</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="D54" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="D55" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="D56" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="D57" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="D58" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="D59" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="D60" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="24">
       <c r="D61" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="24">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="D62" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="D63" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="D64" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="D65" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="D66" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="D67" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="24">
       <c r="D68" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="24">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="48">
+      <c r="A69" t="s">
+        <v>805</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>806</v>
+      </c>
       <c r="D69" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="48">
-      <c r="A70" t="s">
-        <v>797</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s">
-        <v>798</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="E69" t="s">
+        <v>699</v>
+      </c>
+      <c r="F69" t="s">
+        <v>823</v>
+      </c>
+      <c r="G69" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="12.75" customHeight="1">
       <c r="D70" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="E70" t="s">
-        <v>690</v>
-      </c>
-      <c r="F70" t="s">
-        <v>818</v>
-      </c>
-      <c r="G70" t="s">
-        <v>819</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="12.75" customHeight="1">
       <c r="D71" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="E71" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="12.75" customHeight="1">
       <c r="D72" t="s">
-        <v>683</v>
-      </c>
-      <c r="E72" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="12.75" customHeight="1">
       <c r="D73" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="12.75" customHeight="1">
       <c r="D74" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="12.75" customHeight="1">
       <c r="D75" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="12.75" customHeight="1">
       <c r="D76" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="12.75" customHeight="1">
       <c r="D77" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="12.75" customHeight="1">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="60">
+      <c r="A78" t="s">
+        <v>825</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>811</v>
+      </c>
       <c r="D78" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="60">
-      <c r="A79" t="s">
-        <v>820</v>
-      </c>
-      <c r="B79">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>804</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="E78" t="s">
+        <v>670</v>
+      </c>
+      <c r="F78" t="s">
+        <v>823</v>
+      </c>
+      <c r="G78" t="s">
+        <v>816</v>
+      </c>
+      <c r="H78" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="36">
       <c r="D79" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="E79" t="s">
-        <v>661</v>
-      </c>
-      <c r="F79" t="s">
-        <v>818</v>
-      </c>
-      <c r="G79" t="s">
-        <v>811</v>
-      </c>
-      <c r="H79" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="36">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="24">
       <c r="D80" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="E80" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="24">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="D81" t="s">
-        <v>653</v>
-      </c>
-      <c r="E81" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="D82" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="D83" t="s">
-        <v>655</v>
+        <v>720</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="D84" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="24">
       <c r="D85" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="24">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="D86" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="D87" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="D88" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="60">
+      <c r="A89" t="s">
+        <v>818</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>811</v>
+      </c>
       <c r="D89" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="60">
-      <c r="A90" t="s">
-        <v>813</v>
-      </c>
-      <c r="B90">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
-        <v>804</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="E89" t="s">
+        <v>678</v>
+      </c>
+      <c r="F89" t="s">
+        <v>823</v>
+      </c>
+      <c r="G89" t="s">
+        <v>831</v>
+      </c>
+      <c r="H89" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="72">
       <c r="D90" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="E90" t="s">
-        <v>669</v>
-      </c>
-      <c r="F90" t="s">
-        <v>818</v>
-      </c>
-      <c r="G90" t="s">
-        <v>826</v>
-      </c>
-      <c r="H90" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="72">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="D91" t="s">
-        <v>665</v>
-      </c>
-      <c r="E91" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="D92" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="D93" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="D94" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="72">
+      <c r="A95" t="s">
+        <v>833</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>811</v>
+      </c>
       <c r="D95" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="72">
-      <c r="A96" t="s">
-        <v>828</v>
-      </c>
-      <c r="B96">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>804</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="E95" t="s">
+        <v>646</v>
+      </c>
+      <c r="F95" t="s">
+        <v>823</v>
+      </c>
+      <c r="G95" t="s">
+        <v>820</v>
+      </c>
+      <c r="H95" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="24">
       <c r="D96" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="E96" t="s">
-        <v>637</v>
-      </c>
-      <c r="F96" t="s">
-        <v>818</v>
-      </c>
-      <c r="G96" t="s">
-        <v>815</v>
-      </c>
-      <c r="H96" t="s">
-        <v>816</v>
+        <v>647</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="24">
       <c r="D97" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E97" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="24">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="D98" t="s">
-        <v>673</v>
-      </c>
-      <c r="E98" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="D99" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="D100" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="D101" t="s">
-        <v>676</v>
+        <v>749</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="D102" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="60">
+      <c r="A103" t="s">
+        <v>822</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>811</v>
+      </c>
       <c r="D103" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="60">
-      <c r="A104" t="s">
-        <v>817</v>
-      </c>
-      <c r="B104">
-        <v>12</v>
-      </c>
-      <c r="C104" t="s">
-        <v>804</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="E103" t="s">
+        <v>839</v>
+      </c>
+      <c r="F103" t="s">
+        <v>823</v>
+      </c>
+      <c r="G103" t="s">
+        <v>840</v>
+      </c>
+      <c r="H103" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="D104" t="s">
-        <v>640</v>
-      </c>
-      <c r="E104" t="s">
-        <v>834</v>
-      </c>
-      <c r="F104" t="s">
-        <v>818</v>
-      </c>
-      <c r="G104" t="s">
-        <v>835</v>
-      </c>
-      <c r="H104" t="s">
-        <v>836</v>
+        <v>650</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="D105" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="D106" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="D107" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="60">
+      <c r="A108" t="s">
+        <v>842</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>811</v>
+      </c>
       <c r="D108" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="60">
-      <c r="A109" t="s">
-        <v>837</v>
-      </c>
-      <c r="B109">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>804</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="E108" t="s">
+        <v>826</v>
+      </c>
+      <c r="F108" t="s">
+        <v>823</v>
+      </c>
+      <c r="G108" t="s">
+        <v>827</v>
+      </c>
+      <c r="H108" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="D109" t="s">
-        <v>645</v>
-      </c>
-      <c r="E109" t="s">
-        <v>821</v>
-      </c>
-      <c r="F109" t="s">
-        <v>818</v>
-      </c>
-      <c r="G109" t="s">
-        <v>822</v>
-      </c>
-      <c r="H109" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="24">
       <c r="D110" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="24">
       <c r="D111" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="24">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="D112" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="D113" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="D114" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="D115" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="48">
+      <c r="A116" t="s">
+        <v>829</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>830</v>
+      </c>
       <c r="D116" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="48">
-      <c r="A117" t="s">
-        <v>824</v>
-      </c>
-      <c r="B117">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>825</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="E116" t="s">
+        <v>645</v>
+      </c>
+      <c r="F116" t="s">
+        <v>834</v>
+      </c>
+      <c r="G116" t="s">
+        <v>835</v>
+      </c>
+      <c r="H116" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="72">
       <c r="D117" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="E117" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="36">
+      <c r="D118" t="s">
+        <v>634</v>
+      </c>
+      <c r="E118" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="24">
+      <c r="D119" t="s">
+        <v>635</v>
+      </c>
+      <c r="E119" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="D120" t="s">
         <v>636</v>
-      </c>
-      <c r="F117" t="s">
-        <v>829</v>
-      </c>
-      <c r="G117" t="s">
-        <v>830</v>
-      </c>
-      <c r="H117" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="72">
-      <c r="D118" t="s">
-        <v>624</v>
-      </c>
-      <c r="E118" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="36">
-      <c r="D119" t="s">
-        <v>625</v>
-      </c>
-      <c r="E119" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="24">
-      <c r="D120" t="s">
-        <v>626</v>
-      </c>
-      <c r="E120" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="D121" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="D122" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="D123" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="D124" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="24">
       <c r="D125" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="24">
       <c r="D126" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="24">
       <c r="D127" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="24">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="D128" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="84">
+      <c r="A129" t="s">
+        <v>837</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>838</v>
+      </c>
       <c r="D129" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="84">
-      <c r="A130" t="s">
-        <v>832</v>
-      </c>
-      <c r="B130">
-        <v>4</v>
-      </c>
-      <c r="C130" t="s">
-        <v>833</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="E129" t="s">
+        <v>630</v>
+      </c>
+      <c r="F129" t="s">
+        <v>834</v>
+      </c>
+      <c r="G129" t="s">
+        <v>843</v>
+      </c>
+      <c r="H129" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="36">
       <c r="D130" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="E130" t="s">
-        <v>621</v>
-      </c>
-      <c r="F130" t="s">
-        <v>829</v>
-      </c>
-      <c r="G130" t="s">
-        <v>838</v>
-      </c>
-      <c r="H130" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="36">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="60">
       <c r="D131" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="E131" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="60">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="36">
       <c r="D132" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E132" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="36">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="D133" t="s">
-        <v>615</v>
-      </c>
-      <c r="E133" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="D134" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="D135" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="D136" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="D137" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="84">
+      <c r="A138" t="s">
+        <v>845</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>846</v>
+      </c>
       <c r="D138" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="84">
-      <c r="A139" t="s">
-        <v>840</v>
-      </c>
-      <c r="B139">
-        <v>4</v>
-      </c>
-      <c r="C139" t="s">
-        <v>841</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="E138" t="s">
+        <v>598</v>
+      </c>
+      <c r="F138" t="s">
+        <v>819</v>
+      </c>
+      <c r="G138" t="s">
+        <v>847</v>
+      </c>
+      <c r="H138" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="48">
       <c r="D139" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="E139" t="s">
-        <v>589</v>
-      </c>
-      <c r="F139" t="s">
-        <v>814</v>
-      </c>
-      <c r="G139" t="s">
-        <v>842</v>
-      </c>
-      <c r="H139" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="48">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="24">
       <c r="D140" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="E140" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="24">
       <c r="D141" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="E141" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="24">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="36">
       <c r="D142" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="E142" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="36">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="D143" t="s">
-        <v>600</v>
-      </c>
-      <c r="E143" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="D144" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="D145" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="D146" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="D147" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="D148" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="D149" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="D150" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="D151" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="D152" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="D153" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="84">
+      <c r="A154" t="s">
+        <v>849</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>850</v>
+      </c>
       <c r="D154" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="84">
-      <c r="A155" t="s">
-        <v>844</v>
-      </c>
-      <c r="B155">
-        <v>6</v>
-      </c>
-      <c r="C155" t="s">
-        <v>845</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="E154" t="s">
+        <v>592</v>
+      </c>
+      <c r="F154" t="s">
+        <v>941</v>
+      </c>
+      <c r="G154" t="s">
+        <v>851</v>
+      </c>
+      <c r="H154" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="24">
       <c r="D155" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="E155" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="60">
+      <c r="D156" t="s">
         <v>583</v>
       </c>
-      <c r="F155" t="s">
-        <v>846</v>
-      </c>
-      <c r="G155" t="s">
-        <v>847</v>
-      </c>
-      <c r="H155" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="24">
-      <c r="D156" t="s">
-        <v>573</v>
-      </c>
       <c r="E156" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="D157" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="60">
-      <c r="D157" t="s">
-        <v>574</v>
-      </c>
-      <c r="E157" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="D158" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="24">
       <c r="D159" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="24">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="D160" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="D161" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="D162" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="D163" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="D164" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="60">
+      <c r="A165" t="s">
+        <v>853</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>854</v>
+      </c>
       <c r="D165" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="60">
-      <c r="A166" t="s">
-        <v>849</v>
-      </c>
-      <c r="B166">
-        <v>8</v>
-      </c>
-      <c r="C166" t="s">
-        <v>850</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="E165" t="s">
+        <v>579</v>
+      </c>
+      <c r="F165" t="s">
+        <v>941</v>
+      </c>
+      <c r="G165" t="s">
+        <v>855</v>
+      </c>
+      <c r="H165" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="24">
       <c r="D166" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E166" t="s">
-        <v>570</v>
-      </c>
-      <c r="F166" t="s">
-        <v>786</v>
-      </c>
-      <c r="G166" t="s">
-        <v>851</v>
-      </c>
-      <c r="H166" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="24">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="36">
       <c r="D167" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="E167" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="36">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="24">
       <c r="D168" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="E168" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="24">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="36">
       <c r="D169" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="E169" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="36">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="24">
       <c r="D170" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="E170" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="24">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="D171" t="s">
-        <v>556</v>
-      </c>
-      <c r="E171" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="D172" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="D173" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="D174" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="D175" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="D176" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="D177" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="D178" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="D179" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="D180" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="D181" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="D182" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="D183" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="48">
+      <c r="A184" t="s">
+        <v>857</v>
+      </c>
+      <c r="B184">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>846</v>
+      </c>
       <c r="D184" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="48">
-      <c r="A185" t="s">
-        <v>853</v>
-      </c>
-      <c r="B185">
-        <v>8</v>
-      </c>
-      <c r="C185" t="s">
-        <v>841</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="E184" t="s">
+        <v>555</v>
+      </c>
+      <c r="F184" t="s">
+        <v>941</v>
+      </c>
+      <c r="G184" t="s">
+        <v>870</v>
+      </c>
+      <c r="H184" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="24">
       <c r="D185" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E185" t="s">
-        <v>546</v>
-      </c>
-      <c r="F185" t="s">
-        <v>786</v>
-      </c>
-      <c r="G185" t="s">
-        <v>866</v>
-      </c>
-      <c r="H185" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="24">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="60">
       <c r="D186" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="E186" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="60">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="36">
       <c r="D187" t="s">
-        <v>525</v>
+        <v>753</v>
       </c>
       <c r="E187" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="36">
       <c r="D188" t="s">
-        <v>744</v>
+        <v>535</v>
       </c>
       <c r="E188" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="36">
       <c r="D189" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E189" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="36">
       <c r="D190" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="E190" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="36">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="24">
       <c r="D191" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="E191" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="24">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="36">
       <c r="D192" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E192" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="36">
       <c r="D193" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E193" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="36">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="D194" t="s">
-        <v>531</v>
-      </c>
-      <c r="E194" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="24">
       <c r="D195" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="24">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="D196" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="D197" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="D198" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="D199" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="D200" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="D201" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="D202" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="24">
       <c r="D203" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="24">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="D204" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="24">
       <c r="D205" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="24">
       <c r="D206" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="24">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="60">
+      <c r="A207" t="s">
+        <v>872</v>
+      </c>
+      <c r="B207">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>854</v>
+      </c>
       <c r="D207" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="60">
-      <c r="A208" t="s">
-        <v>868</v>
-      </c>
-      <c r="B208">
-        <v>8</v>
-      </c>
-      <c r="C208" t="s">
-        <v>850</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="E207" t="s">
+        <v>494</v>
+      </c>
+      <c r="F207" t="s">
+        <v>941</v>
+      </c>
+      <c r="G207" t="s">
+        <v>858</v>
+      </c>
+      <c r="H207" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="48">
       <c r="D208" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="E208" t="s">
-        <v>485</v>
-      </c>
-      <c r="F208" t="s">
-        <v>786</v>
-      </c>
-      <c r="G208" t="s">
-        <v>854</v>
-      </c>
-      <c r="H208" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="209" spans="4:5" ht="48">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" ht="36">
       <c r="D209" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="E209" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="210" spans="4:5" ht="36">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" ht="24">
       <c r="D210" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E210" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="211" spans="4:5" ht="24">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5">
       <c r="D211" t="s">
-        <v>503</v>
-      </c>
-      <c r="E211" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
     </row>
     <row r="212" spans="4:5">
       <c r="D212" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="213" spans="4:5">
       <c r="D213" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="214" spans="4:5">
       <c r="D214" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" spans="4:5">
       <c r="D215" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" spans="4:5">
       <c r="D216" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="217" spans="4:5">
       <c r="D217" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" spans="4:5">
       <c r="D218" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="219" spans="4:5">
       <c r="D219" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="220" spans="4:5">
       <c r="D220" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
     </row>
     <row r="221" spans="4:5">
       <c r="D221" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" spans="4:5">
       <c r="D222" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="223" spans="4:5">
       <c r="D223" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" spans="4:5">
       <c r="D224" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="D225" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="D226" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="D227" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="D228" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="D229" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>860</v>
+      </c>
+      <c r="B230" t="s">
+        <v>861</v>
+      </c>
+      <c r="C230" t="s">
+        <v>862</v>
+      </c>
       <c r="D230" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>856</v>
-      </c>
-      <c r="B231" t="s">
-        <v>857</v>
-      </c>
-      <c r="C231" t="s">
-        <v>858</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="E230" t="s">
+        <v>877</v>
+      </c>
+      <c r="F230" t="s">
+        <v>878</v>
+      </c>
+      <c r="G230" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="24">
       <c r="D231" t="s">
-        <v>489</v>
-      </c>
-      <c r="E231" t="s">
-        <v>873</v>
-      </c>
-      <c r="F231" t="s">
-        <v>874</v>
-      </c>
-      <c r="G231" t="s">
-        <v>875</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="24">
       <c r="D232" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="60">
+      <c r="A233" t="s">
+        <v>880</v>
+      </c>
+      <c r="B233">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>862</v>
+      </c>
       <c r="D233" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="60">
-      <c r="A234" t="s">
-        <v>876</v>
-      </c>
-      <c r="B234">
-        <v>12</v>
-      </c>
-      <c r="C234" t="s">
-        <v>858</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="E233" t="s">
+        <v>470</v>
+      </c>
+      <c r="F233" t="s">
+        <v>878</v>
+      </c>
+      <c r="G233" t="s">
+        <v>863</v>
+      </c>
+      <c r="H233" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="24">
       <c r="D234" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
-      </c>
-      <c r="F234" t="s">
-        <v>874</v>
-      </c>
-      <c r="G234" t="s">
-        <v>859</v>
-      </c>
-      <c r="H234" t="s">
-        <v>860</v>
+        <v>471</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="24">
       <c r="D235" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E235" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="24">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="D236" t="s">
-        <v>494</v>
-      </c>
-      <c r="E236" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="D237" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="24">
       <c r="D238" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="24">
       <c r="D239" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="24">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="60">
+      <c r="A240" t="s">
+        <v>865</v>
+      </c>
+      <c r="B240">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>866</v>
+      </c>
       <c r="D240" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="60">
-      <c r="A241" t="s">
-        <v>861</v>
-      </c>
-      <c r="B241">
-        <v>8</v>
-      </c>
-      <c r="C241" t="s">
-        <v>862</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="E240" t="s">
+        <v>478</v>
+      </c>
+      <c r="F240" t="s">
+        <v>878</v>
+      </c>
+      <c r="G240" t="s">
+        <v>867</v>
+      </c>
+      <c r="H240" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="24">
       <c r="D241" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
-      </c>
-      <c r="F241" t="s">
-        <v>874</v>
-      </c>
-      <c r="G241" t="s">
-        <v>863</v>
-      </c>
-      <c r="H241" t="s">
-        <v>864</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="24">
       <c r="D242" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="24">
       <c r="D243" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E243" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="24">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="D244" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="D245" t="s">
-        <v>468</v>
-      </c>
-      <c r="E245" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="60">
-      <c r="A247" t="s">
-        <v>865</v>
-      </c>
-      <c r="B247">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="60">
+      <c r="A246" t="s">
+        <v>869</v>
+      </c>
+      <c r="B246">
         <v>1</v>
       </c>
-      <c r="C247" t="s">
-        <v>858</v>
-      </c>
+      <c r="C246" t="s">
+        <v>862</v>
+      </c>
+      <c r="D246" t="s">
+        <v>483</v>
+      </c>
+      <c r="E246" t="s">
+        <v>487</v>
+      </c>
+      <c r="F246" t="s">
+        <v>878</v>
+      </c>
+      <c r="G246" t="s">
+        <v>884</v>
+      </c>
+      <c r="H246" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="D247" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="E247" t="s">
-        <v>478</v>
-      </c>
-      <c r="F247" t="s">
-        <v>874</v>
-      </c>
-      <c r="G247" t="s">
-        <v>881</v>
-      </c>
-      <c r="H247" t="s">
-        <v>882</v>
+        <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="D248" t="s">
-        <v>475</v>
-      </c>
-      <c r="E248" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="D249" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="60">
+      <c r="A250" t="s">
+        <v>886</v>
+      </c>
+      <c r="B250">
+        <v>6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>862</v>
+      </c>
       <c r="D250" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="60">
-      <c r="A251" t="s">
-        <v>883</v>
-      </c>
-      <c r="B251">
-        <v>6</v>
-      </c>
-      <c r="C251" t="s">
-        <v>858</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="E250" t="s">
+        <v>465</v>
+      </c>
+      <c r="F250" t="s">
+        <v>878</v>
+      </c>
+      <c r="G250" t="s">
+        <v>873</v>
+      </c>
+      <c r="H250" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="24">
       <c r="D251" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="E251" t="s">
-        <v>456</v>
-      </c>
-      <c r="F251" t="s">
-        <v>874</v>
-      </c>
-      <c r="G251" t="s">
-        <v>869</v>
-      </c>
-      <c r="H251" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="24">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="36">
       <c r="D252" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E252" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="24">
+      <c r="D253" t="s">
+        <v>463</v>
+      </c>
+      <c r="E253" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="D254" t="s">
+        <v>464</v>
+      </c>
+      <c r="E254" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="60">
+      <c r="A255" t="s">
+        <v>875</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>876</v>
+      </c>
+      <c r="D255" t="s">
+        <v>444</v>
+      </c>
+      <c r="E255" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" ht="36">
-      <c r="D253" t="s">
-        <v>453</v>
-      </c>
-      <c r="E253" t="s">
+      <c r="F255" t="s">
+        <v>4</v>
+      </c>
+      <c r="G255" t="s">
+        <v>888</v>
+      </c>
+      <c r="H255" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="24">
+      <c r="D256" t="s">
+        <v>445</v>
+      </c>
+      <c r="E256" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="24">
-      <c r="D254" t="s">
-        <v>454</v>
-      </c>
-      <c r="E254" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="D255" t="s">
-        <v>455</v>
-      </c>
-      <c r="E255" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="60">
-      <c r="A256" t="s">
-        <v>871</v>
-      </c>
-      <c r="B256">
-        <v>4</v>
-      </c>
-      <c r="C256" t="s">
-        <v>872</v>
-      </c>
-      <c r="D256" t="s">
-        <v>435</v>
-      </c>
-      <c r="E256" t="s">
-        <v>448</v>
-      </c>
-      <c r="F256" t="s">
-        <v>809</v>
-      </c>
-      <c r="G256" t="s">
-        <v>885</v>
-      </c>
-      <c r="H256" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="24">
       <c r="D257" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E257" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="24">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="D258" t="s">
-        <v>437</v>
-      </c>
-      <c r="E258" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="D259" t="s">
-        <v>438</v>
+        <v>617</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="D260" t="s">
-        <v>608</v>
+        <v>448</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="D261" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="D262" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="24">
       <c r="D263" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="24">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="D264" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="D265" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="D266" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="D267" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="D268" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="60">
+      <c r="A269" t="s">
+        <v>890</v>
+      </c>
+      <c r="B269">
+        <v>15</v>
+      </c>
+      <c r="C269" t="s">
+        <v>876</v>
+      </c>
       <c r="D269" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" ht="60">
-      <c r="A270" t="s">
-        <v>887</v>
-      </c>
-      <c r="B270">
-        <v>15</v>
-      </c>
-      <c r="C270" t="s">
-        <v>872</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="E269" t="s">
+        <v>436</v>
+      </c>
+      <c r="F269" t="s">
+        <v>5</v>
+      </c>
+      <c r="G269" t="s">
+        <v>881</v>
+      </c>
+      <c r="H269" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="36">
       <c r="D270" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E270" t="s">
-        <v>427</v>
-      </c>
-      <c r="F270" t="s">
-        <v>877</v>
-      </c>
-      <c r="G270" t="s">
-        <v>878</v>
-      </c>
-      <c r="H270" t="s">
-        <v>879</v>
+        <v>437</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="36">
       <c r="D271" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E271" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" ht="36">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="D272" t="s">
-        <v>417</v>
-      </c>
-      <c r="E272" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="D273" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="D274" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="D275" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="D276" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="D277" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="24">
       <c r="D278" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" ht="24">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="D279" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="D280" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="D281" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="72">
+      <c r="A282" t="s">
+        <v>883</v>
+      </c>
+      <c r="B282" t="s">
+        <v>861</v>
+      </c>
+      <c r="C282" t="s">
+        <v>830</v>
+      </c>
       <c r="D282" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="72">
-      <c r="A283" t="s">
-        <v>880</v>
-      </c>
-      <c r="B283" t="s">
-        <v>857</v>
-      </c>
-      <c r="C283" t="s">
-        <v>825</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="E282" t="s">
+        <v>401</v>
+      </c>
+      <c r="F282" t="s">
+        <v>834</v>
+      </c>
+      <c r="G282" t="s">
+        <v>893</v>
+      </c>
+      <c r="H282" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="D283" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E283" t="s">
-        <v>392</v>
-      </c>
-      <c r="F283" t="s">
-        <v>829</v>
-      </c>
-      <c r="G283" t="s">
-        <v>890</v>
-      </c>
-      <c r="H283" t="s">
-        <v>891</v>
+        <v>402</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="D284" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="E284" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="24">
       <c r="D285" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E285" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" ht="24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="D286" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="E286" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="D287" t="s">
-        <v>434</v>
-      </c>
-      <c r="E287" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="D288" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="D289" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="60">
+      <c r="A290" t="s">
+        <v>895</v>
+      </c>
+      <c r="B290">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>846</v>
+      </c>
       <c r="D290" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="60">
-      <c r="A291" t="s">
-        <v>892</v>
-      </c>
-      <c r="B291">
-        <v>6</v>
-      </c>
-      <c r="C291" t="s">
-        <v>841</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="E290" t="s">
+        <v>419</v>
+      </c>
+      <c r="F290" t="s">
+        <v>834</v>
+      </c>
+      <c r="G290" t="s">
+        <v>887</v>
+      </c>
+      <c r="H290" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="36">
       <c r="D291" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E291" t="s">
-        <v>410</v>
-      </c>
-      <c r="F291" t="s">
-        <v>829</v>
-      </c>
-      <c r="G291" t="s">
-        <v>884</v>
-      </c>
-      <c r="H291" t="s">
-        <v>896</v>
+        <v>420</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="36">
       <c r="D292" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E292" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="48">
+      <c r="D293" t="s">
+        <v>409</v>
+      </c>
+      <c r="E293" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="36">
+      <c r="D294" t="s">
+        <v>410</v>
+      </c>
+      <c r="E294" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="D295" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" ht="36">
-      <c r="D293" t="s">
-        <v>399</v>
-      </c>
-      <c r="E293" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" ht="48">
-      <c r="D294" t="s">
-        <v>400</v>
-      </c>
-      <c r="E294" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" ht="36">
-      <c r="D295" t="s">
-        <v>401</v>
-      </c>
-      <c r="E295" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="D296" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="D297" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="D298" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="D299" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="D300" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="D301" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="D302" t="s">
-        <v>408</v>
+        <v>665</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="D303" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="36">
+      <c r="A304" t="s">
+        <v>899</v>
+      </c>
+      <c r="B304" t="s">
+        <v>770</v>
+      </c>
+      <c r="C304" t="s">
+        <v>838</v>
+      </c>
       <c r="D304" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" ht="36">
-      <c r="A305" t="s">
-        <v>897</v>
-      </c>
-      <c r="B305" t="s">
-        <v>761</v>
-      </c>
-      <c r="C305" t="s">
-        <v>833</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="E304" t="s">
+        <v>389</v>
+      </c>
+      <c r="F304" t="s">
+        <v>798</v>
+      </c>
+      <c r="G304" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="24">
       <c r="D305" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E305" t="s">
-        <v>380</v>
-      </c>
-      <c r="F305" t="s">
-        <v>790</v>
-      </c>
-      <c r="G305" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" ht="24">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="36">
       <c r="D306" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E306" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" ht="36">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="D307" t="s">
-        <v>372</v>
-      </c>
-      <c r="E307" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="D308" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="D309" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="D310" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="D311" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="D312" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="D313" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="48">
+      <c r="A314" t="s">
+        <v>892</v>
+      </c>
+      <c r="B314">
+        <v>4</v>
+      </c>
+      <c r="C314" t="s">
+        <v>794</v>
+      </c>
       <c r="D314" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" ht="48">
-      <c r="A315" t="s">
-        <v>889</v>
-      </c>
-      <c r="B315">
-        <v>4</v>
-      </c>
-      <c r="C315" t="s">
-        <v>785</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E314" t="s">
+        <v>371</v>
+      </c>
+      <c r="F314" t="s">
+        <v>6</v>
+      </c>
+      <c r="G314" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="60">
       <c r="D315" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E315" t="s">
-        <v>362</v>
-      </c>
-      <c r="F315" t="s">
-        <v>893</v>
-      </c>
-      <c r="G315" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" ht="60">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="72">
       <c r="D316" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E316" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" ht="72">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="24">
       <c r="D317" t="s">
-        <v>385</v>
-      </c>
-      <c r="E317" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="D318" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="24">
+      <c r="D319" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="60">
+      <c r="D320" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="24">
-      <c r="D318" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="D319" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" ht="24">
-      <c r="D320" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" ht="60">
+    <row r="321" spans="1:8">
       <c r="D321" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="D322" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="323" spans="1:8">
       <c r="D323" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="24">
       <c r="D324" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" ht="24">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="D325" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="D326" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="72">
+      <c r="A327" t="s">
+        <v>897</v>
+      </c>
+      <c r="B327">
+        <v>9</v>
+      </c>
+      <c r="C327" t="s">
+        <v>794</v>
+      </c>
+      <c r="D327" t="s">
+        <v>374</v>
+      </c>
+      <c r="E327" t="s">
+        <v>358</v>
+      </c>
+      <c r="F327" t="s">
+        <v>823</v>
+      </c>
+      <c r="G327" t="s">
+        <v>900</v>
+      </c>
+      <c r="H327" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="36">
+      <c r="D328" t="s">
+        <v>375</v>
+      </c>
+      <c r="E328" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="24">
+      <c r="D329" t="s">
+        <v>376</v>
+      </c>
+      <c r="E329" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
-      <c r="D327" t="s">
+    <row r="330" spans="1:8" ht="72">
+      <c r="D330" t="s">
+        <v>377</v>
+      </c>
+      <c r="E330" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="72">
-      <c r="A328" t="s">
-        <v>895</v>
-      </c>
-      <c r="B328">
-        <v>9</v>
-      </c>
-      <c r="C328" t="s">
-        <v>785</v>
-      </c>
-      <c r="D328" t="s">
-        <v>365</v>
-      </c>
-      <c r="E328" t="s">
-        <v>349</v>
-      </c>
-      <c r="F328" t="s">
-        <v>818</v>
-      </c>
-      <c r="G328" t="s">
-        <v>898</v>
-      </c>
-      <c r="H328" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="36">
-      <c r="D329" t="s">
-        <v>366</v>
-      </c>
-      <c r="E329" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="24">
-      <c r="D330" t="s">
-        <v>367</v>
-      </c>
-      <c r="E330" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="72">
+    <row r="331" spans="1:8" ht="36">
       <c r="D331" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E331" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" ht="36">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="D332" t="s">
-        <v>369</v>
-      </c>
-      <c r="E332" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="D333" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="334" spans="1:8">
       <c r="D334" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="D335" t="s">
-        <v>347</v>
+        <v>749</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="D336" t="s">
-        <v>740</v>
+        <v>660</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="D337" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="84">
+      <c r="A338" t="s">
+        <v>902</v>
+      </c>
+      <c r="B338">
+        <v>8</v>
+      </c>
+      <c r="C338" t="s">
+        <v>794</v>
+      </c>
       <c r="D338" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="84">
-      <c r="A339" t="s">
-        <v>900</v>
-      </c>
-      <c r="B339">
-        <v>8</v>
-      </c>
-      <c r="C339" t="s">
-        <v>785</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="E338" t="s">
+        <v>341</v>
+      </c>
+      <c r="F338" t="s">
+        <v>823</v>
+      </c>
+      <c r="G338" t="s">
+        <v>913</v>
+      </c>
+      <c r="H338" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="24">
       <c r="D339" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="E339" t="s">
-        <v>332</v>
-      </c>
-      <c r="F339" t="s">
-        <v>818</v>
-      </c>
-      <c r="G339" t="s">
-        <v>911</v>
-      </c>
-      <c r="H339" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="24">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="48">
       <c r="D340" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E340" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" ht="48">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="24">
       <c r="D341" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E341" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" ht="24">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="D342" t="s">
-        <v>326</v>
-      </c>
-      <c r="E342" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="24">
       <c r="D343" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="24">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="D344" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="345" spans="1:8">
       <c r="D345" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="24">
       <c r="D346" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" ht="24">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="84">
+      <c r="A347" t="s">
+        <v>904</v>
+      </c>
+      <c r="B347">
+        <v>8</v>
+      </c>
+      <c r="C347" t="s">
+        <v>794</v>
+      </c>
       <c r="D347" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" ht="84">
-      <c r="A348" t="s">
-        <v>902</v>
-      </c>
-      <c r="B348">
-        <v>8</v>
-      </c>
-      <c r="C348" t="s">
-        <v>785</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="E347" t="s">
+        <v>352</v>
+      </c>
+      <c r="F347" t="s">
+        <v>823</v>
+      </c>
+      <c r="G347" t="s">
+        <v>905</v>
+      </c>
+      <c r="H347" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="48">
       <c r="D348" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E348" t="s">
-        <v>343</v>
-      </c>
-      <c r="F348" t="s">
-        <v>818</v>
-      </c>
-      <c r="G348" t="s">
-        <v>903</v>
-      </c>
-      <c r="H348" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" ht="48">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="36">
       <c r="D349" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E349" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" ht="36">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="D350" t="s">
-        <v>338</v>
-      </c>
-      <c r="E350" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="D351" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:8">
       <c r="D352" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:8">
       <c r="D353" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="84">
+      <c r="A354" t="s">
+        <v>907</v>
+      </c>
+      <c r="B354" t="s">
+        <v>861</v>
+      </c>
+      <c r="C354" t="s">
+        <v>908</v>
+      </c>
       <c r="D354" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="84">
-      <c r="A355" t="s">
-        <v>905</v>
-      </c>
-      <c r="B355" t="s">
-        <v>857</v>
-      </c>
-      <c r="C355" t="s">
-        <v>906</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E354" t="s">
+        <v>326</v>
+      </c>
+      <c r="F354" t="s">
+        <v>823</v>
+      </c>
+      <c r="G354" t="s">
+        <v>909</v>
+      </c>
+      <c r="H354" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="60">
       <c r="D355" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E355" t="s">
-        <v>317</v>
-      </c>
-      <c r="F355" t="s">
-        <v>818</v>
-      </c>
-      <c r="G355" t="s">
-        <v>907</v>
-      </c>
-      <c r="H355" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" ht="60">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="24">
       <c r="D356" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E356" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="24">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="36">
       <c r="D357" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="E357" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="36">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="D358" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E358" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="D359" t="s">
-        <v>313</v>
-      </c>
-      <c r="E359" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="24">
       <c r="D360" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="24">
       <c r="D361" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" ht="24">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="72">
+      <c r="A362" t="s">
+        <v>911</v>
+      </c>
+      <c r="B362" t="s">
+        <v>912</v>
+      </c>
+      <c r="C362" t="s">
+        <v>794</v>
+      </c>
       <c r="D362" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" ht="72">
-      <c r="A363" t="s">
-        <v>909</v>
-      </c>
-      <c r="B363" t="s">
-        <v>910</v>
-      </c>
-      <c r="C363" t="s">
-        <v>785</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="E362" t="s">
+        <v>308</v>
+      </c>
+      <c r="F362" t="s">
+        <v>823</v>
+      </c>
+      <c r="G362" t="s">
+        <v>914</v>
+      </c>
+      <c r="H362" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="24">
       <c r="D363" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E363" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="D364" t="s">
+        <v>298</v>
+      </c>
+      <c r="E364" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="24">
+      <c r="D365" t="s">
         <v>299</v>
       </c>
-      <c r="F363" t="s">
-        <v>818</v>
-      </c>
-      <c r="G363" t="s">
-        <v>912</v>
-      </c>
-      <c r="H363" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" ht="24">
-      <c r="D364" t="s">
-        <v>323</v>
-      </c>
-      <c r="E364" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="D365" t="s">
-        <v>289</v>
-      </c>
       <c r="E365" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="24">
       <c r="D366" t="s">
-        <v>290</v>
-      </c>
-      <c r="E366" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="24">
       <c r="D367" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" ht="24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="D368" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="369" spans="1:8">
       <c r="D369" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="370" spans="1:8">
       <c r="D370" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="371" spans="1:8">
       <c r="D371" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="D372" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="D373" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="108">
+      <c r="A374" t="s">
+        <v>916</v>
+      </c>
+      <c r="B374">
+        <v>6</v>
+      </c>
+      <c r="C374" t="s">
+        <v>854</v>
+      </c>
       <c r="D374" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" ht="108">
-      <c r="A375" t="s">
-        <v>914</v>
-      </c>
-      <c r="B375">
-        <v>6</v>
-      </c>
-      <c r="C375" t="s">
-        <v>850</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E374" t="s">
+        <v>288</v>
+      </c>
+      <c r="F374" t="s">
+        <v>823</v>
+      </c>
+      <c r="G374" t="s">
+        <v>917</v>
+      </c>
+      <c r="H374" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="48">
       <c r="D375" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E375" t="s">
-        <v>279</v>
-      </c>
-      <c r="F375" t="s">
-        <v>818</v>
-      </c>
-      <c r="G375" t="s">
-        <v>915</v>
-      </c>
-      <c r="H375" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" ht="48">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="D376" t="s">
-        <v>304</v>
-      </c>
-      <c r="E376" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="D377" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="378" spans="1:8">
       <c r="D378" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="72">
+      <c r="A379" t="s">
+        <v>919</v>
+      </c>
+      <c r="B379">
+        <v>4</v>
+      </c>
+      <c r="C379" t="s">
+        <v>794</v>
+      </c>
       <c r="D379" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" ht="72">
-      <c r="A380" t="s">
-        <v>917</v>
-      </c>
-      <c r="B380">
-        <v>4</v>
-      </c>
-      <c r="C380" t="s">
-        <v>785</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="E379" t="s">
+        <v>296</v>
+      </c>
+      <c r="F379" t="s">
+        <v>823</v>
+      </c>
+      <c r="G379" t="s">
+        <v>920</v>
+      </c>
+      <c r="H379" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="36">
       <c r="D380" t="s">
+        <v>291</v>
+      </c>
+      <c r="E380" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="24">
+      <c r="D381" t="s">
+        <v>292</v>
+      </c>
+      <c r="E381" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="D382" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="24">
+      <c r="D383" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="D384" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="60">
+      <c r="A385" t="s">
+        <v>922</v>
+      </c>
+      <c r="B385" t="s">
+        <v>923</v>
+      </c>
+      <c r="C385" t="s">
+        <v>908</v>
+      </c>
+      <c r="D385" t="s">
+        <v>278</v>
+      </c>
+      <c r="E385" t="s">
+        <v>286</v>
+      </c>
+      <c r="F385" t="s">
+        <v>823</v>
+      </c>
+      <c r="G385" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="60">
+      <c r="D386" t="s">
+        <v>279</v>
+      </c>
+      <c r="E386" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="24">
+      <c r="D387" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="D388" t="s">
         <v>281</v>
-      </c>
-      <c r="E380" t="s">
-        <v>287</v>
-      </c>
-      <c r="F380" t="s">
-        <v>818</v>
-      </c>
-      <c r="G380" t="s">
-        <v>918</v>
-      </c>
-      <c r="H380" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" ht="36">
-      <c r="D381" t="s">
-        <v>282</v>
-      </c>
-      <c r="E381" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" ht="24">
-      <c r="D382" t="s">
-        <v>283</v>
-      </c>
-      <c r="E382" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
-      <c r="D383" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" ht="24">
-      <c r="D384" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8">
-      <c r="D385" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" ht="60">
-      <c r="A386" t="s">
-        <v>920</v>
-      </c>
-      <c r="B386" t="s">
-        <v>921</v>
-      </c>
-      <c r="C386" t="s">
-        <v>906</v>
-      </c>
-      <c r="D386" t="s">
-        <v>269</v>
-      </c>
-      <c r="E386" t="s">
-        <v>277</v>
-      </c>
-      <c r="F386" t="s">
-        <v>818</v>
-      </c>
-      <c r="G386" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="60">
-      <c r="D387" t="s">
-        <v>270</v>
-      </c>
-      <c r="E387" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="24">
-      <c r="D388" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="389" spans="1:8">
       <c r="D389" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="390" spans="1:8">
       <c r="D390" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="391" spans="1:8">
       <c r="D391" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="392" spans="1:8">
       <c r="D392" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="393" spans="1:8">
       <c r="D393" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="72">
+      <c r="A394" t="s">
+        <v>925</v>
+      </c>
+      <c r="B394">
+        <v>6</v>
+      </c>
+      <c r="C394" t="s">
+        <v>926</v>
+      </c>
+      <c r="D394" t="s">
+        <v>255</v>
+      </c>
+      <c r="E394" t="s">
+        <v>274</v>
+      </c>
+      <c r="F394" t="s">
+        <v>834</v>
+      </c>
+      <c r="G394" t="s">
+        <v>927</v>
+      </c>
+      <c r="H394" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="48">
+      <c r="D395" t="s">
+        <v>256</v>
+      </c>
+      <c r="E395" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="36">
+      <c r="D396" t="s">
+        <v>257</v>
+      </c>
+      <c r="E396" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
-      <c r="D394" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" ht="72">
-      <c r="A395" t="s">
-        <v>923</v>
-      </c>
-      <c r="B395">
-        <v>6</v>
-      </c>
-      <c r="C395" t="s">
-        <v>924</v>
-      </c>
-      <c r="D395" t="s">
-        <v>246</v>
-      </c>
-      <c r="E395" t="s">
-        <v>265</v>
-      </c>
-      <c r="F395" t="s">
-        <v>829</v>
-      </c>
-      <c r="G395" t="s">
-        <v>925</v>
-      </c>
-      <c r="H395" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" ht="48">
-      <c r="D396" t="s">
-        <v>247</v>
-      </c>
-      <c r="E396" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="36">
       <c r="D397" t="s">
+        <v>258</v>
+      </c>
+      <c r="E397" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="24">
+      <c r="D398" t="s">
+        <v>635</v>
+      </c>
+      <c r="E398" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="36">
+      <c r="D399" t="s">
+        <v>259</v>
+      </c>
+      <c r="E399" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="D400" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="D401" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="36">
+      <c r="D402" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="D403" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="D404" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="24">
+      <c r="D405" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="D406" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="D407" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="D408" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="D409" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="D410" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="D411" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="D412" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="D413" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="D414" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="D415" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="60">
+      <c r="A416" t="s">
+        <v>929</v>
+      </c>
+      <c r="B416">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>930</v>
+      </c>
+      <c r="D416" t="s">
+        <v>236</v>
+      </c>
+      <c r="E416" t="s">
+        <v>254</v>
+      </c>
+      <c r="F416" t="s">
+        <v>931</v>
+      </c>
+      <c r="G416" t="s">
+        <v>932</v>
+      </c>
+      <c r="H416" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="417" spans="4:5" ht="36">
+      <c r="D417" t="s">
+        <v>237</v>
+      </c>
+      <c r="E417" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="418" spans="4:5" ht="36">
+      <c r="D418" t="s">
+        <v>238</v>
+      </c>
+      <c r="E418" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="419" spans="4:5" ht="24">
+      <c r="D419" t="s">
+        <v>239</v>
+      </c>
+      <c r="E419" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="420" spans="4:5">
+      <c r="D420" t="s">
+        <v>240</v>
+      </c>
+      <c r="E420" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="421" spans="4:5" ht="36">
+      <c r="D421" t="s">
+        <v>241</v>
+      </c>
+      <c r="E421" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="422" spans="4:5" ht="24">
+      <c r="D422" t="s">
+        <v>242</v>
+      </c>
+      <c r="E422" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="423" spans="4:5" ht="36">
+      <c r="D423" t="s">
+        <v>243</v>
+      </c>
+      <c r="E423" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="424" spans="4:5">
+      <c r="D424" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="425" spans="4:5">
+      <c r="D425" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="426" spans="4:5">
+      <c r="D426" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="427" spans="4:5">
+      <c r="D427" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="428" spans="4:5">
+      <c r="D428" t="s">
         <v>248</v>
       </c>
-      <c r="E397" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" ht="36">
-      <c r="D398" t="s">
+    </row>
+    <row r="429" spans="4:5">
+      <c r="D429" t="s">
         <v>249</v>
       </c>
-      <c r="E398" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" ht="24">
-      <c r="D399" t="s">
-        <v>626</v>
-      </c>
-      <c r="E399" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" ht="36">
-      <c r="D400" t="s">
+    </row>
+    <row r="430" spans="4:5">
+      <c r="D430" t="s">
         <v>250</v>
       </c>
-      <c r="E400" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="401" spans="4:4">
-      <c r="D401" t="s">
+    </row>
+    <row r="431" spans="4:5">
+      <c r="D431" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="402" spans="4:4">
-      <c r="D402" t="s">
+    <row r="432" spans="4:5">
+      <c r="D432" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="403" spans="4:4" ht="36">
-      <c r="D403" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="404" spans="4:4">
-      <c r="D404" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="405" spans="4:4">
-      <c r="D405" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="406" spans="4:4" ht="24">
-      <c r="D406" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="407" spans="4:4">
-      <c r="D407" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="408" spans="4:4">
-      <c r="D408" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="409" spans="4:4">
-      <c r="D409" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="410" spans="4:4">
-      <c r="D410" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="411" spans="4:4">
-      <c r="D411" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="412" spans="4:4">
-      <c r="D412" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="413" spans="4:4">
-      <c r="D413" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="414" spans="4:4">
-      <c r="D414" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="415" spans="4:4">
-      <c r="D415" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="416" spans="4:4">
-      <c r="D416" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" ht="60">
-      <c r="A417" t="s">
-        <v>927</v>
-      </c>
-      <c r="B417">
-        <v>5</v>
-      </c>
-      <c r="C417" t="s">
-        <v>928</v>
-      </c>
-      <c r="D417" t="s">
-        <v>227</v>
-      </c>
-      <c r="E417" t="s">
-        <v>245</v>
-      </c>
-      <c r="F417" t="s">
-        <v>929</v>
-      </c>
-      <c r="G417" t="s">
-        <v>930</v>
-      </c>
-      <c r="H417" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" ht="36">
-      <c r="D418" t="s">
-        <v>228</v>
-      </c>
-      <c r="E418" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" ht="36">
-      <c r="D419" t="s">
-        <v>229</v>
-      </c>
-      <c r="E419" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" ht="24">
-      <c r="D420" t="s">
-        <v>230</v>
-      </c>
-      <c r="E420" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
-      <c r="D421" t="s">
-        <v>231</v>
-      </c>
-      <c r="E421" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" ht="36">
-      <c r="D422" t="s">
-        <v>232</v>
-      </c>
-      <c r="E422" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" ht="24">
-      <c r="D423" t="s">
-        <v>233</v>
-      </c>
-      <c r="E423" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" ht="36">
-      <c r="D424" t="s">
-        <v>234</v>
-      </c>
-      <c r="E424" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
-      <c r="D425" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8">
-      <c r="D426" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
-      <c r="D427" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
-      <c r="D428" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8">
-      <c r="D429" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
-      <c r="D430" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
-      <c r="D431" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8">
-      <c r="D432" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="433" spans="1:8">
       <c r="D433" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" ht="84">
+      <c r="A434" t="s">
+        <v>934</v>
+      </c>
+      <c r="B434">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s">
+        <v>838</v>
+      </c>
       <c r="D434" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" ht="84">
-      <c r="A435" t="s">
-        <v>932</v>
-      </c>
-      <c r="B435">
-        <v>6</v>
-      </c>
-      <c r="C435" t="s">
-        <v>833</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E434" t="s">
+        <v>231</v>
+      </c>
+      <c r="F434" t="s">
+        <v>7</v>
+      </c>
+      <c r="G434" t="s">
+        <v>935</v>
+      </c>
+      <c r="H434" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" ht="48">
       <c r="D435" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E435" t="s">
-        <v>222</v>
-      </c>
-      <c r="F435" t="s">
-        <v>933</v>
-      </c>
-      <c r="G435" t="s">
-        <v>934</v>
-      </c>
-      <c r="H435" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" ht="48">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="36">
       <c r="D436" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E436" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="36">
       <c r="D437" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E437" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" ht="36">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="24">
       <c r="D438" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E438" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" ht="24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="D439" t="s">
-        <v>216</v>
-      </c>
-      <c r="E439" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
     </row>
     <row r="440" spans="1:8">
       <c r="D440" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="441" spans="1:8">
       <c r="D441" t="s">
-        <v>218</v>
+        <v>753</v>
       </c>
     </row>
     <row r="442" spans="1:8">
       <c r="D442" t="s">
-        <v>744</v>
+        <v>228</v>
       </c>
     </row>
     <row r="443" spans="1:8">
       <c r="D443" t="s">
-        <v>219</v>
+        <v>658</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="D444" t="s">
-        <v>649</v>
+        <v>229</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="D445" t="s">
-        <v>220</v>
+        <v>665</v>
       </c>
     </row>
     <row r="446" spans="1:8">
       <c r="D446" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" ht="84">
+      <c r="A447" t="s">
+        <v>937</v>
+      </c>
+      <c r="B447">
+        <v>6</v>
+      </c>
+      <c r="C447" t="s">
+        <v>862</v>
+      </c>
       <c r="D447" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" ht="84">
-      <c r="A448" t="s">
-        <v>936</v>
-      </c>
-      <c r="B448">
-        <v>6</v>
-      </c>
-      <c r="C448" t="s">
-        <v>858</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E447" t="s">
+        <v>191</v>
+      </c>
+      <c r="F447" t="s">
+        <v>823</v>
+      </c>
+      <c r="G447" t="s">
+        <v>938</v>
+      </c>
+      <c r="H447" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" ht="24">
       <c r="D448" t="s">
-        <v>185</v>
+        <v>753</v>
       </c>
       <c r="E448" t="s">
-        <v>182</v>
-      </c>
-      <c r="F448" t="s">
-        <v>818</v>
-      </c>
-      <c r="G448" t="s">
-        <v>937</v>
-      </c>
-      <c r="H448" t="s">
-        <v>938</v>
+        <v>192</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="24">
       <c r="D449" t="s">
-        <v>744</v>
+        <v>195</v>
       </c>
       <c r="E449" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" ht="24">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="D450" t="s">
-        <v>186</v>
-      </c>
-      <c r="E450" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="451" spans="1:8">
       <c r="D451" t="s">
-        <v>187</v>
+        <v>658</v>
       </c>
     </row>
     <row r="452" spans="1:8">
       <c r="D452" t="s">
-        <v>649</v>
+        <v>749</v>
       </c>
     </row>
     <row r="453" spans="1:8">
       <c r="D453" t="s">
-        <v>740</v>
+        <v>197</v>
       </c>
     </row>
     <row r="454" spans="1:8">
       <c r="D454" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" ht="60">
+      <c r="A455" t="s">
+        <v>940</v>
+      </c>
+      <c r="B455">
+        <v>6</v>
+      </c>
+      <c r="C455" t="s">
+        <v>908</v>
+      </c>
       <c r="D455" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" ht="60">
-      <c r="A456" t="s">
-        <v>939</v>
-      </c>
-      <c r="B456">
-        <v>6</v>
-      </c>
-      <c r="C456" t="s">
-        <v>906</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E455" t="s">
+        <v>178</v>
+      </c>
+      <c r="F455" t="s">
+        <v>941</v>
+      </c>
+      <c r="G455" t="s">
+        <v>948</v>
+      </c>
+      <c r="H455" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" ht="24">
       <c r="D456" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E456" t="s">
-        <v>169</v>
-      </c>
-      <c r="F456" t="s">
-        <v>940</v>
-      </c>
-      <c r="G456" t="s">
-        <v>947</v>
-      </c>
-      <c r="H456" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" ht="24">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" ht="60">
       <c r="D457" t="s">
-        <v>191</v>
+        <v>722</v>
       </c>
       <c r="E457" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" ht="60">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" ht="48">
       <c r="D458" t="s">
-        <v>713</v>
+        <v>201</v>
       </c>
       <c r="E458" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" ht="48">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" ht="72">
       <c r="D459" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E459" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" ht="72">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="D460" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E460" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="461" spans="1:8">
       <c r="D461" t="s">
-        <v>194</v>
-      </c>
-      <c r="E461" t="s">
-        <v>174</v>
+        <v>547</v>
       </c>
     </row>
     <row r="462" spans="1:8">
       <c r="D462" t="s">
-        <v>538</v>
+        <v>204</v>
       </c>
     </row>
     <row r="463" spans="1:8">
       <c r="D463" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="464" spans="1:8">
       <c r="D464" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="465" spans="1:8">
       <c r="D465" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="466" spans="1:8">
       <c r="D466" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="467" spans="1:8">
       <c r="D467" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="468" spans="1:8">
       <c r="D468" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="469" spans="1:8">
       <c r="D469" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="470" spans="1:8">
       <c r="D470" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="471" spans="1:8">
       <c r="D471" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="472" spans="1:8">
       <c r="D472" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" ht="84">
+      <c r="A473" t="s">
+        <v>950</v>
+      </c>
+      <c r="B473">
+        <v>12</v>
+      </c>
+      <c r="C473" t="s">
+        <v>951</v>
+      </c>
       <c r="D473" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8" ht="84">
-      <c r="A474" t="s">
-        <v>949</v>
-      </c>
-      <c r="B474">
-        <v>12</v>
-      </c>
-      <c r="C474" t="s">
-        <v>950</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E473" t="s">
+        <v>167</v>
+      </c>
+      <c r="F473" t="s">
+        <v>798</v>
+      </c>
+      <c r="G473" t="s">
+        <v>942</v>
+      </c>
+      <c r="H473" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" ht="24">
       <c r="D474" t="s">
+        <v>185</v>
+      </c>
+      <c r="E474" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" ht="60">
+      <c r="D475" t="s">
+        <v>186</v>
+      </c>
+      <c r="E475" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" ht="48">
+      <c r="D476" t="s">
+        <v>165</v>
+      </c>
+      <c r="E476" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" ht="36">
+      <c r="D477" t="s">
+        <v>753</v>
+      </c>
+      <c r="E477" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="D478" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" ht="84">
+      <c r="A479" t="s">
+        <v>944</v>
+      </c>
+      <c r="B479">
+        <v>6</v>
+      </c>
+      <c r="C479" t="s">
+        <v>930</v>
+      </c>
+      <c r="D479" t="s">
+        <v>172</v>
+      </c>
+      <c r="E479" t="s">
+        <v>155</v>
+      </c>
+      <c r="F479" t="s">
+        <v>798</v>
+      </c>
+      <c r="G479" t="s">
+        <v>945</v>
+      </c>
+      <c r="H479" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" ht="36">
+      <c r="D480" t="s">
+        <v>173</v>
+      </c>
+      <c r="E480" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" ht="48">
+      <c r="D481" t="s">
+        <v>174</v>
+      </c>
+      <c r="E481" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" ht="24">
+      <c r="D482" t="s">
         <v>175</v>
       </c>
-      <c r="E474" t="s">
+      <c r="E482" t="s">
         <v>158</v>
       </c>
-      <c r="F474" t="s">
-        <v>790</v>
-      </c>
-      <c r="G474" t="s">
-        <v>941</v>
-      </c>
-      <c r="H474" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8" ht="24">
-      <c r="D475" t="s">
-        <v>176</v>
-      </c>
-      <c r="E475" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8" ht="60">
-      <c r="D476" t="s">
-        <v>177</v>
-      </c>
-      <c r="E476" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8" ht="48">
-      <c r="D477" t="s">
-        <v>156</v>
-      </c>
-      <c r="E477" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" ht="36">
-      <c r="D478" t="s">
-        <v>744</v>
-      </c>
-      <c r="E478" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8">
-      <c r="D479" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" ht="84">
-      <c r="A480" t="s">
-        <v>943</v>
-      </c>
-      <c r="B480">
-        <v>6</v>
-      </c>
-      <c r="C480" t="s">
-        <v>928</v>
-      </c>
-      <c r="D480" t="s">
-        <v>163</v>
-      </c>
-      <c r="E480" t="s">
-        <v>146</v>
-      </c>
-      <c r="F480" t="s">
-        <v>790</v>
-      </c>
-      <c r="G480" t="s">
-        <v>944</v>
-      </c>
-      <c r="H480" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8" ht="36">
-      <c r="D481" t="s">
-        <v>164</v>
-      </c>
-      <c r="E481" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8" ht="48">
-      <c r="D482" t="s">
-        <v>165</v>
-      </c>
-      <c r="E482" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8" ht="24">
+    </row>
+    <row r="483" spans="1:8">
       <c r="D483" t="s">
-        <v>166</v>
-      </c>
-      <c r="E483" t="s">
-        <v>149</v>
+        <v>677</v>
       </c>
     </row>
     <row r="484" spans="1:8">
       <c r="D484" t="s">
-        <v>668</v>
+        <v>176</v>
       </c>
     </row>
     <row r="485" spans="1:8">
       <c r="D485" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="486" spans="1:8">
       <c r="D486" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" ht="96">
+      <c r="A487" t="s">
+        <v>947</v>
+      </c>
+      <c r="B487">
+        <v>16</v>
+      </c>
+      <c r="C487" t="s">
+        <v>862</v>
+      </c>
       <c r="D487" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" ht="96">
-      <c r="A488" t="s">
-        <v>946</v>
-      </c>
-      <c r="B488">
-        <v>16</v>
-      </c>
-      <c r="C488" t="s">
-        <v>858</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E487" t="s">
+        <v>163</v>
+      </c>
+      <c r="F487" t="s">
+        <v>834</v>
+      </c>
+      <c r="G487" t="s">
+        <v>952</v>
+      </c>
+      <c r="H487" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" ht="48">
       <c r="D488" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E488" t="s">
-        <v>154</v>
-      </c>
-      <c r="F488" t="s">
-        <v>829</v>
-      </c>
-      <c r="G488" t="s">
-        <v>951</v>
-      </c>
-      <c r="H488" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" ht="48">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" ht="36">
       <c r="D489" t="s">
-        <v>151</v>
+        <v>665</v>
       </c>
       <c r="E489" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="490" spans="1:8" ht="36">
       <c r="D490" t="s">
-        <v>656</v>
+        <v>161</v>
       </c>
       <c r="E490" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8" ht="36">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
       <c r="D491" t="s">
-        <v>152</v>
-      </c>
-      <c r="E491" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" ht="60">
+      <c r="A492" t="s">
+        <v>954</v>
+      </c>
+      <c r="B492" t="s">
+        <v>923</v>
+      </c>
+      <c r="C492" t="s">
+        <v>854</v>
+      </c>
       <c r="D492" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8" ht="60">
-      <c r="A493" t="s">
-        <v>953</v>
-      </c>
-      <c r="B493" t="s">
-        <v>921</v>
-      </c>
-      <c r="C493" t="s">
-        <v>850</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E492" t="s">
+        <v>130</v>
+      </c>
+      <c r="F492" t="s">
+        <v>798</v>
+      </c>
+      <c r="G492" t="s">
+        <v>955</v>
+      </c>
+      <c r="H492" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
       <c r="D493" t="s">
-        <v>118</v>
+        <v>782</v>
       </c>
       <c r="E493" t="s">
-        <v>121</v>
-      </c>
-      <c r="F493" t="s">
-        <v>790</v>
-      </c>
-      <c r="G493" t="s">
-        <v>954</v>
-      </c>
-      <c r="H493" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" ht="24">
       <c r="D494" t="s">
-        <v>773</v>
+        <v>128</v>
       </c>
       <c r="E494" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" ht="24">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="D495" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E495" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="496" spans="1:8">
-      <c r="D496" t="s">
-        <v>120</v>
-      </c>
       <c r="E496" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" ht="11" customHeight="1">
+      <c r="A497" t="s">
+        <v>957</v>
+      </c>
+      <c r="B497">
+        <v>12</v>
+      </c>
+      <c r="C497" t="s">
+        <v>846</v>
+      </c>
+      <c r="D497" t="s">
+        <v>135</v>
+      </c>
       <c r="E497" t="s">
-        <v>125</v>
+        <v>147</v>
+      </c>
+      <c r="F497" t="s">
+        <v>834</v>
+      </c>
+      <c r="G497" t="s">
+        <v>958</v>
+      </c>
+      <c r="H497" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="498" spans="1:8" ht="11" customHeight="1">
-      <c r="A498" t="s">
-        <v>956</v>
-      </c>
-      <c r="B498">
-        <v>12</v>
-      </c>
-      <c r="C498" t="s">
-        <v>841</v>
-      </c>
       <c r="D498" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E498" t="s">
-        <v>138</v>
-      </c>
-      <c r="F498" t="s">
-        <v>829</v>
-      </c>
-      <c r="G498" t="s">
-        <v>957</v>
-      </c>
-      <c r="H498" t="s">
-        <v>958</v>
+        <v>148</v>
       </c>
     </row>
     <row r="499" spans="1:8" ht="11" customHeight="1">
       <c r="D499" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E499" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="500" spans="1:8" ht="11" customHeight="1">
       <c r="D500" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E500" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="501" spans="1:8" ht="11" customHeight="1">
       <c r="D501" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E501" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="502" spans="1:8" ht="11" customHeight="1">
       <c r="D502" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E502" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="11" customHeight="1">
       <c r="D503" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E503" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="504" spans="1:8" ht="11" customHeight="1">
       <c r="D504" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E504" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
     </row>
     <row r="505" spans="1:8" ht="11" customHeight="1">
       <c r="D505" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E505" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="506" spans="1:8" ht="11" customHeight="1">
       <c r="D506" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E506" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="507" spans="1:8" ht="11" customHeight="1">
       <c r="D507" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E507" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="508" spans="1:8" ht="11" customHeight="1">
       <c r="D508" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E508" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="11" customHeight="1">
-      <c r="D509" t="s">
-        <v>137</v>
-      </c>
       <c r="E509" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="510" spans="1:8" ht="11" customHeight="1">
       <c r="E510" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" ht="11" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="60">
+      <c r="A511" t="s">
+        <v>960</v>
+      </c>
+      <c r="B511">
+        <v>12</v>
+      </c>
+      <c r="C511" t="s">
+        <v>846</v>
+      </c>
+      <c r="D511" t="s">
+        <v>112</v>
+      </c>
       <c r="E511" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" ht="60">
-      <c r="A512" t="s">
-        <v>959</v>
-      </c>
-      <c r="B512">
-        <v>12</v>
-      </c>
-      <c r="C512" t="s">
-        <v>841</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F511" t="s">
+        <v>798</v>
+      </c>
+      <c r="G511" t="s">
+        <v>963</v>
+      </c>
+      <c r="H511" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" ht="21" customHeight="1">
       <c r="D512" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E512" t="s">
-        <v>112</v>
-      </c>
-      <c r="F512" t="s">
-        <v>790</v>
-      </c>
-      <c r="G512" t="s">
-        <v>963</v>
-      </c>
-      <c r="H512" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" ht="21" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" ht="16" customHeight="1">
       <c r="D513" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E513" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" ht="16" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" ht="12">
       <c r="D514" t="s">
-        <v>105</v>
-      </c>
-      <c r="E514" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="515" spans="1:8" ht="12">
       <c r="D515" t="s">
-        <v>106</v>
+        <v>753</v>
       </c>
     </row>
     <row r="516" spans="1:8" ht="12">
       <c r="D516" t="s">
-        <v>744</v>
+        <v>116</v>
       </c>
     </row>
     <row r="517" spans="1:8" ht="12">
       <c r="D517" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="518" spans="1:8" ht="12">
       <c r="D518" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="519" spans="1:8" ht="12">
       <c r="D519" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="520" spans="1:8" ht="12">
       <c r="D520" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="521" spans="1:8" ht="12">
       <c r="D521" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8" ht="12">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" ht="72">
+      <c r="A522" t="s">
+        <v>965</v>
+      </c>
+      <c r="B522">
+        <v>6</v>
+      </c>
+      <c r="C522" t="s">
+        <v>930</v>
+      </c>
       <c r="D522" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" ht="72">
-      <c r="A523" t="s">
-        <v>965</v>
-      </c>
-      <c r="B523">
-        <v>6</v>
-      </c>
-      <c r="C523" t="s">
-        <v>928</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E522" t="s">
+        <v>101</v>
+      </c>
+      <c r="F522" t="s">
+        <v>8</v>
+      </c>
+      <c r="G522" t="s">
+        <v>961</v>
+      </c>
+      <c r="H522" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" ht="24">
       <c r="D523" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E523" t="s">
-        <v>92</v>
-      </c>
-      <c r="F523" t="s">
-        <v>960</v>
-      </c>
-      <c r="G523" t="s">
-        <v>961</v>
-      </c>
-      <c r="H523" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8" ht="24">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" ht="36">
       <c r="D524" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E524" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="525" spans="1:8" ht="36">
       <c r="D525" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E525" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="D526" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" ht="24">
+      <c r="D527" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="36">
-      <c r="D526" t="s">
-        <v>83</v>
-      </c>
-      <c r="E526" t="s">
+    <row r="528" spans="1:8">
+      <c r="D528" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
-      <c r="D527" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" ht="24">
-      <c r="D528" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" ht="24">
       <c r="D529" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8" ht="24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
       <c r="D530" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="531" spans="1:8">
       <c r="D531" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="532" spans="1:8">
       <c r="D532" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="533" spans="1:8">
       <c r="D533" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" ht="72">
+      <c r="A534" t="s">
+        <v>968</v>
+      </c>
+      <c r="B534">
+        <v>6</v>
+      </c>
+      <c r="C534" t="s">
+        <v>930</v>
+      </c>
       <c r="D534" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8" ht="72">
-      <c r="A535" t="s">
-        <v>968</v>
-      </c>
-      <c r="B535">
-        <v>6</v>
-      </c>
-      <c r="C535" t="s">
-        <v>928</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E534" t="s">
+        <v>78</v>
+      </c>
+      <c r="F534" t="s">
+        <v>9</v>
+      </c>
+      <c r="G534" t="s">
+        <v>969</v>
+      </c>
+      <c r="H534" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" ht="36">
       <c r="D535" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E535" t="s">
-        <v>69</v>
-      </c>
-      <c r="F535" t="s">
-        <v>969</v>
-      </c>
-      <c r="G535" t="s">
-        <v>970</v>
-      </c>
-      <c r="H535" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8" ht="36">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" ht="12">
       <c r="D536" t="s">
-        <v>61</v>
-      </c>
-      <c r="E536" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="537" spans="1:8" ht="12">
       <c r="D537" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="538" spans="1:8" ht="12">
       <c r="D538" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="539" spans="1:8" ht="12">
       <c r="D539" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="540" spans="1:8" ht="12">
       <c r="D540" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="541" spans="1:8" ht="12">
       <c r="D541" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="542" spans="1:8" ht="12">
       <c r="D542" t="s">
-        <v>67</v>
+        <v>548</v>
       </c>
     </row>
     <row r="543" spans="1:8" ht="12">
       <c r="D543" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8" ht="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" ht="84">
+      <c r="A544" t="s">
+        <v>962</v>
+      </c>
+      <c r="B544">
+        <v>6</v>
+      </c>
+      <c r="C544" t="s">
+        <v>846</v>
+      </c>
       <c r="D544" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8" ht="84">
-      <c r="A545" t="s">
-        <v>962</v>
-      </c>
-      <c r="B545">
-        <v>6</v>
-      </c>
-      <c r="C545" t="s">
-        <v>841</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E544" t="s">
+        <v>87</v>
+      </c>
+      <c r="F544" t="s">
+        <v>941</v>
+      </c>
+      <c r="G544" t="s">
+        <v>971</v>
+      </c>
+      <c r="H544" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
       <c r="D545" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E545" t="s">
-        <v>78</v>
-      </c>
-      <c r="F545" t="s">
-        <v>940</v>
-      </c>
-      <c r="G545" t="s">
-        <v>972</v>
-      </c>
-      <c r="H545" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" ht="36">
       <c r="D546" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E546" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8" ht="36">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" ht="84">
       <c r="D547" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E547" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8" ht="84">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
       <c r="D548" t="s">
-        <v>74</v>
-      </c>
-      <c r="E548" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="549" spans="1:8">
       <c r="D549" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="550" spans="1:8">
       <c r="D550" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="551" spans="1:8">
       <c r="D551" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" ht="72">
+      <c r="A552" t="s">
+        <v>973</v>
+      </c>
+      <c r="B552">
+        <v>8</v>
+      </c>
+      <c r="C552" t="s">
+        <v>846</v>
+      </c>
       <c r="D552" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" ht="72">
-      <c r="A553" t="s">
-        <v>974</v>
-      </c>
-      <c r="B553">
-        <v>8</v>
-      </c>
-      <c r="C553" t="s">
-        <v>841</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E552" t="s">
+        <v>67</v>
+      </c>
+      <c r="F552" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" t="s">
+        <v>966</v>
+      </c>
+      <c r="H552" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" ht="48">
       <c r="D553" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E553" t="s">
-        <v>58</v>
-      </c>
-      <c r="F553" t="s">
-        <v>960</v>
-      </c>
-      <c r="G553" t="s">
-        <v>966</v>
-      </c>
-      <c r="H553" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8" ht="48">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
       <c r="D554" t="s">
-        <v>46</v>
-      </c>
-      <c r="E554" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="555" spans="1:8">
       <c r="D555" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="556" spans="1:8">
       <c r="D556" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="557" spans="1:8">
       <c r="D557" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="558" spans="1:8">
       <c r="D558" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="559" spans="1:8">
       <c r="D559" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="560" spans="1:8">
       <c r="D560" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="561" spans="1:8">
       <c r="D561" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="562" spans="1:8">
       <c r="D562" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="563" spans="1:8">
       <c r="D563" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="564" spans="1:8">
       <c r="D564" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="565" spans="1:8">
       <c r="D565" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="566" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" ht="60">
+      <c r="A566" t="s">
+        <v>977</v>
+      </c>
+      <c r="B566">
+        <v>8</v>
+      </c>
+      <c r="C566" t="s">
+        <v>846</v>
+      </c>
       <c r="D566" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8" ht="60">
-      <c r="A567" t="s">
+        <v>35</v>
+      </c>
+      <c r="E566" t="s">
+        <v>52</v>
+      </c>
+      <c r="F566" t="s">
+        <v>8</v>
+      </c>
+      <c r="G566" t="s">
         <v>978</v>
       </c>
-      <c r="B567">
-        <v>8</v>
-      </c>
-      <c r="C567" t="s">
-        <v>841</v>
-      </c>
+      <c r="H566" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" ht="24">
       <c r="D567" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E567" t="s">
-        <v>43</v>
-      </c>
-      <c r="F567" t="s">
-        <v>960</v>
-      </c>
-      <c r="G567" t="s">
-        <v>979</v>
-      </c>
-      <c r="H567" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8" ht="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" ht="12">
       <c r="D568" t="s">
-        <v>27</v>
-      </c>
-      <c r="E568" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="569" spans="1:8" ht="12">
       <c r="D569" t="s">
-        <v>28</v>
+        <v>448</v>
       </c>
     </row>
     <row r="570" spans="1:8" ht="12">
       <c r="D570" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8" ht="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" ht="24">
       <c r="D571" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8" ht="24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" ht="12">
       <c r="D572" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="573" spans="1:8" ht="12">
       <c r="D573" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8" ht="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" ht="24">
       <c r="D574" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8" ht="24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" ht="12">
       <c r="D575" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="576" spans="1:8" ht="12">
       <c r="D576" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="577" spans="1:8" ht="12">
       <c r="D577" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="578" spans="1:8" ht="12">
       <c r="D578" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="579" spans="1:8" ht="12">
       <c r="D579" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="580" spans="1:8" ht="12">
       <c r="D580" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="581" spans="1:8" ht="12">
       <c r="D581" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="582" spans="1:8" ht="12">
       <c r="D582" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="583" spans="1:8" ht="12">
       <c r="D583" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="584" spans="1:8" ht="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" ht="60">
+      <c r="A584" t="s">
+        <v>980</v>
+      </c>
+      <c r="B584">
+        <v>6</v>
+      </c>
+      <c r="C584" t="s">
+        <v>830</v>
+      </c>
       <c r="D584" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="585" spans="1:8" ht="60">
-      <c r="A585" t="s">
-        <v>981</v>
-      </c>
-      <c r="B585">
-        <v>6</v>
-      </c>
-      <c r="C585" t="s">
-        <v>825</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E584" t="s">
+        <v>26</v>
+      </c>
+      <c r="F584" t="s">
+        <v>8</v>
+      </c>
+      <c r="G584" t="s">
+        <v>974</v>
+      </c>
+      <c r="H584" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" ht="12.75" customHeight="1">
       <c r="D585" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E585" t="s">
-        <v>17</v>
-      </c>
-      <c r="F585" t="s">
-        <v>960</v>
-      </c>
-      <c r="G585" t="s">
-        <v>975</v>
-      </c>
-      <c r="H585" t="s">
-        <v>976</v>
+        <v>27</v>
       </c>
     </row>
     <row r="586" spans="1:8" ht="12.75" customHeight="1">
       <c r="D586" t="s">
-        <v>4</v>
-      </c>
-      <c r="E586" t="s">
-        <v>18</v>
+        <v>541</v>
       </c>
     </row>
     <row r="587" spans="1:8" ht="12.75" customHeight="1">
       <c r="D587" t="s">
-        <v>532</v>
+        <v>14</v>
       </c>
     </row>
     <row r="588" spans="1:8" ht="12.75" customHeight="1">
       <c r="D588" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="589" spans="1:8" ht="12.75" customHeight="1">
       <c r="D589" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="590" spans="1:8" ht="12.75" customHeight="1">
       <c r="D590" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
     </row>
     <row r="591" spans="1:8" ht="12.75" customHeight="1">
       <c r="D591" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
     </row>
     <row r="592" spans="1:8" ht="12.75" customHeight="1">
       <c r="D592" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="593" spans="4:4" ht="12.75" customHeight="1">
       <c r="D593" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="594" spans="4:4" ht="12.75" customHeight="1">
       <c r="D594" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="595" spans="4:4" ht="12.75" customHeight="1">
       <c r="D595" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="596" spans="4:4" ht="12.75" customHeight="1">
       <c r="D596" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="597" spans="4:4" ht="12.75" customHeight="1">
       <c r="D597" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="598" spans="4:4" ht="12.75" customHeight="1">
       <c r="D598" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="599" spans="4:4" ht="12.75" customHeight="1">
       <c r="D599" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="600" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D600" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
